--- a/scripts/Provincial_Tools/tbl_sql_classify.xlsx
+++ b/scripts/Provincial_Tools/tbl_sql_classify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98EEB8-529B-46AA-9A91-DEB823B2E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52157851-8FA1-4ABE-BD15-1F96003BD902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="tbl_sql_classify_originalLW" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="tbl_sql_classify" localSheetId="0">tbl_sql_classify!$A$1:$F$483</definedName>
+    <definedName name="tbl_sql_classify" localSheetId="0">tbl_sql_classify!$A$1:$F$487</definedName>
     <definedName name="tbl_sql_classify">tbl_sql_classify_originalLW!$A$1:$F$481</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,8 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={14A0FCB2-4570-4E05-9011-9C2D100E0BD5}</author>
+    <author>tc={053BB2F6-1330-4801-8273-4EFD8767448F}</author>
+  </authors>
+  <commentList>
+    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{14A0FCB2-4570-4E05-9011-9C2D100E0BD5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Watch out for Romeo - it uses old ecosite</t>
+      </text>
+    </comment>
+    <comment ref="I155" authorId="1" shapeId="0" xr:uid="{053BB2F6-1330-4801-8273-4EFD8767448F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This SB1 SQL is bit more restrictive than the old SB&gt;=70</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="625">
   <si>
     <t>RECNO</t>
   </si>
@@ -1765,36 +1792,6 @@
     <t>same as v9 ROD2023 but removed SX from the 2nd inequality because SB group is SB+SX.</t>
   </si>
   <si>
-    <t>(PW+PR+HE+SW &gt;= 40 AND PW&gt;=30) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(PW+PR+SW+HE&gt;= 40 AND PW+PR&gt;= 30) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>((AB + EX + YB &gt;= 20 AND ECONUM IN (119,120,123,129,130,131)) OR PB &gt;= 70) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(AB+EX+MH+YB+MR+HE &gt;= 30) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(SB+LA+CE&gt;=70 AND SC=4 AND ECONUM IN (126,136,137)) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(SB&gt;=80 AND AB&lt;=10 AND ECONUM IN (127,128,129,222,223,224)) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(PJ&gt;=90 OR (PJ&gt;=70 AND PO+PT+BW+YB+MR+MH+AB+EX+PB&lt;=20 AND ECONUM IN (12,33,34,35,48,49,50))) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(CE+LA+SB+BF+SW&gt;= 70 AND ECONUM IN (127,128,129,222,223,224,136,137)) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>((PJ+SB+PR+PW&gt;=70 OR (PJ&gt;=30 AND PJ+SB+BF+SW+PW+PR+CE+LA&gt;=70)) AND PJ+PW+PR&gt;=SB+SW+CE) AND SFU IS NULL</t>
-  </si>
-  <si>
-    <t>(SB+SW+BF+CE+LA+PW+PJ+PR+HE&gt;=70 AND (BF+CE+PW+SW+HE&lt;=20 OR PJ+PR+LA&gt;=30)) AND SFU IS NULL</t>
-  </si>
-  <si>
     <t>SQL_ORDER</t>
   </si>
   <si>
@@ -1802,19 +1799,166 @@
   </si>
   <si>
     <t>SQL_NAME</t>
+  </si>
+  <si>
+    <t>EASY_NAME</t>
+  </si>
+  <si>
+    <t>Red Pine, Plantations</t>
+  </si>
+  <si>
+    <t>White Pine, Shelterwood</t>
+  </si>
+  <si>
+    <t>Red and White Pine</t>
+  </si>
+  <si>
+    <t>Lowland Hardwood</t>
+  </si>
+  <si>
+    <t>Tolerant Hardwood</t>
+  </si>
+  <si>
+    <t>Black Spruce, Lowland</t>
+  </si>
+  <si>
+    <t>Jack Pine, Pure</t>
+  </si>
+  <si>
+    <t>Lowland Conifer</t>
+  </si>
+  <si>
+    <t>Jack Pine Black Spruce</t>
+  </si>
+  <si>
+    <t>Spruce, Upland</t>
+  </si>
+  <si>
+    <t>Poplar</t>
+  </si>
+  <si>
+    <t>White Birch</t>
+  </si>
+  <si>
+    <t>MH1</t>
+  </si>
+  <si>
+    <t>MC1</t>
+  </si>
+  <si>
+    <t>MH2</t>
+  </si>
+  <si>
+    <t>MC2</t>
+  </si>
+  <si>
+    <t>SC4 Black Spruce, Bog</t>
+  </si>
+  <si>
+    <t>Mixedwood Hardwood Fresh Coarse</t>
+  </si>
+  <si>
+    <t>Mixedwood Conifer Fresh Coarse</t>
+  </si>
+  <si>
+    <t>UDF</t>
+  </si>
+  <si>
+    <t>Mixedwood Hardwood Moist Fine</t>
+  </si>
+  <si>
+    <t>Mixedwood Conifer Moist Fine</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>(PW+PR+HE+SW &gt;= 40 AND PW&gt;=30)</t>
+  </si>
+  <si>
+    <t>(PW+PR+SW+HE&gt;= 40 AND PW+PR&gt;= 30)</t>
+  </si>
+  <si>
+    <t>((AB + EX + YB &gt;= 20 AND ECONUM IN (119,120,123,129,130,131)) OR PB &gt;= 70)</t>
+  </si>
+  <si>
+    <t>AB+EX+MH+YB+MR+HE &gt;= 30</t>
+  </si>
+  <si>
+    <t>SB+LA+CE&gt;=70 AND SC=4 AND ECONUM IN (126,136,137)</t>
+  </si>
+  <si>
+    <t>SB&gt;=80 AND AB&lt;=10 AND ECONUM IN (127,128,129,222,223,224)</t>
+  </si>
+  <si>
+    <t>(PJ&gt;=90 OR (PJ&gt;=70 AND PO+PT+BW+YB+MR+MH+AB+EX+PB&lt;=20 AND ECONUM IN (12,33,34,35,48,49,50)))</t>
+  </si>
+  <si>
+    <t>CE+LA+SB+BF+SW&gt;= 70 AND ECONUM IN (127,128,129,222,223,224,136,137)</t>
+  </si>
+  <si>
+    <t>(PJ+SB+PR+PW&gt;=70 OR (PJ&gt;=30 AND PJ+SB+BF+SW+PW+PR+CE+LA&gt;=70)) AND PJ+PW+PR&gt;=SB+SW+CE</t>
+  </si>
+  <si>
+    <t>SB+SW+BF+CE+LA+PW+PJ+PR+HE&gt;=70 AND (BF+CE+PW+SW+HE&lt;=20 OR PJ+PR+LA&gt;=30)</t>
+  </si>
+  <si>
+    <t>SB+SW+BF+CE+LA+PW+PJ+PR&gt;=70</t>
+  </si>
+  <si>
+    <t>PO+PT+PL+BW+MH+YB+MR+AB+EX+PB&gt;=70 AND PO+PT+PL+PB&gt;=50</t>
+  </si>
+  <si>
+    <t>PO+BW+YB+MR+UH+MH+LH+OH&gt;=70</t>
+  </si>
+  <si>
+    <t>(BF&lt;=20 AND SW&lt;=20 AND CE&lt;=20 AND PO+PT+PL+BW+MH+YB+MR+AB+EX+PB&gt;=50 AND PJ+PR&lt;=50 AND PJ+PR&gt;=20 AND ECONUM IN (16,19,28,40,43,55,59,70,76))</t>
+  </si>
+  <si>
+    <t>((BF&lt;=20 AND SW&lt;=20 AND CE&lt;=20 AND PJ+PR+LA&gt;=20 AND ECONUM IN (12,14,35,37,38,50,52,53,65,67,68)) OR PJ+PR&gt;=50)</t>
+  </si>
+  <si>
+    <t>PO+PT+PL+BW+MH+YB+MR+AB+EX+PB&gt;=50</t>
+  </si>
+  <si>
+    <t>SB+SW+BF+CE+LA+PW+PJ+PR&gt;50</t>
+  </si>
+  <si>
+    <t>POLYTYPE = 'FOR'</t>
+  </si>
+  <si>
+    <t>SFU IN ('SP1','SF1','PJ2')</t>
+  </si>
+  <si>
+    <t>SFU IN ('PR1','PW1','PRW')</t>
+  </si>
+  <si>
+    <t>SFU IN ('SBOG','SB1','LC1')</t>
+  </si>
+  <si>
+    <t>SFU IN ('MH1','MH2','MC1','MC2')</t>
+  </si>
+  <si>
+    <t>SFU IN ('LH1','TH1')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1856,22 +2000,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kim, Daniel (MNR)" id="{264968DA-A092-4D89-A15E-5FC7711A2087}" userId="S::Daniel.Kim2@ontario.ca::6a941af3-110c-4c3c-b425-309817122f3e" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78662066-8961-40A1-8222-90158F51F698}" name="Table2" displayName="Table2" ref="A1:H483" totalsRowShown="0">
-  <autoFilter ref="A1:H483" xr:uid="{78662066-8961-40A1-8222-90158F51F698}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78662066-8961-40A1-8222-90158F51F698}" name="Table2" displayName="Table2" ref="A1:I487" totalsRowShown="0">
+  <autoFilter ref="A1:I487" xr:uid="{78662066-8961-40A1-8222-90158F51F698}">
     <filterColumn colId="1">
       <filters>
         <filter val="NEBOR"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A0EAC60B-668E-44A3-9B0D-478FBC6B6047}" name="RECNO"/>
     <tableColumn id="2" xr3:uid="{FF83C207-30F8-4195-90E0-902ED8E62390}" name="REGION"/>
     <tableColumn id="3" xr3:uid="{732E8D58-73DD-4F36-B6F6-1A4A0C1ED1C9}" name="FIELD"/>
     <tableColumn id="4" xr3:uid="{B2C0A861-BDC4-4E94-997A-40A4A1DE443F}" name="SQL_ORDER"/>
     <tableColumn id="5" xr3:uid="{EDB131C1-2692-4718-9FD5-3F71F8DCC08F}" name="SQL_NAME"/>
     <tableColumn id="6" xr3:uid="{982296EC-E85D-44F9-83ED-B182D8A13072}" name="SQL_SYNTAX"/>
+    <tableColumn id="9" xr3:uid="{9C40C81D-B88A-411F-B167-19B54A32FEEB}" name="EASY_NAME"/>
     <tableColumn id="8" xr3:uid="{F3AE0AC6-D5DC-466C-BB7C-208EB4FF9807}" name="Edited"/>
     <tableColumn id="7" xr3:uid="{4B3FF395-9C67-4853-AF04-0F2E4373E12A}" name="Comments"/>
   </tableColumns>
@@ -2179,12 +2330,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I154" dT="2025-02-24T21:17:09.49" personId="{264968DA-A092-4D89-A15E-5FC7711A2087}" id="{14A0FCB2-4570-4E05-9011-9C2D100E0BD5}">
+    <text>Watch out for Romeo - it uses old ecosite</text>
+  </threadedComment>
+  <threadedComment ref="I155" dT="2025-02-24T21:15:40.85" personId="{264968DA-A092-4D89-A15E-5FC7711A2087}" id="{053BB2F6-1330-4801-8273-4EFD8767448F}">
+    <text>This SB1 SQL is bit more restrictive than the old SB&gt;=70</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
-  <dimension ref="A1:H483"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
+  <dimension ref="A1:I487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="B149" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,12 +2356,13 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="140.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="75.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="75.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2207,25 +2370,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" t="s">
         <v>563</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2245,7 +2411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2265,7 +2431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2285,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2305,7 +2471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2325,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2345,7 +2511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2365,7 +2531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2385,7 +2551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2405,7 +2571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2425,7 +2591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2445,7 +2611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2465,7 +2631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2485,7 +2651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2505,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5085,7 +5251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>301</v>
       </c>
@@ -5105,7 +5271,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>302</v>
       </c>
@@ -5125,7 +5291,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>303</v>
       </c>
@@ -5145,7 +5311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>304</v>
       </c>
@@ -5165,7 +5331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>310</v>
       </c>
@@ -5185,33 +5351,42 @@
         <v>213</v>
       </c>
       <c r="G149" t="s">
+        <v>579</v>
+      </c>
+      <c r="H149" t="s">
         <v>565</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>208</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
       <c r="E150" t="s">
         <v>564</v>
       </c>
       <c r="F150" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="G150" t="s">
+        <v>580</v>
+      </c>
+      <c r="H150" t="s">
         <v>573</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>311</v>
       </c>
@@ -5221,20 +5396,26 @@
       <c r="C151" t="s">
         <v>18</v>
       </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
       <c r="E151" t="s">
         <v>214</v>
       </c>
       <c r="F151" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="G151" t="s">
+        <v>581</v>
+      </c>
+      <c r="H151" t="s">
         <v>565</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>312</v>
       </c>
@@ -5244,40 +5425,52 @@
       <c r="C152" t="s">
         <v>18</v>
       </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
       <c r="E152" t="s">
         <v>216</v>
       </c>
       <c r="F152" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="G152" t="s">
+        <v>582</v>
+      </c>
+      <c r="H152" t="s">
         <v>565</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>208</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
       </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
       <c r="E153" t="s">
         <v>570</v>
       </c>
       <c r="F153" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="G153" t="s">
+        <v>583</v>
+      </c>
+      <c r="H153" t="s">
         <v>565</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>313</v>
       </c>
@@ -5287,20 +5480,26 @@
       <c r="C154" t="s">
         <v>18</v>
       </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
       <c r="E154" t="s">
         <v>569</v>
       </c>
       <c r="F154" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="G154" t="s">
+        <v>595</v>
+      </c>
+      <c r="H154" t="s">
         <v>565</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>315</v>
       </c>
@@ -5310,20 +5509,26 @@
       <c r="C155" t="s">
         <v>18</v>
       </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
       <c r="E155" t="s">
         <v>220</v>
       </c>
       <c r="F155" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="G155" t="s">
+        <v>584</v>
+      </c>
+      <c r="H155" t="s">
         <v>565</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>316</v>
       </c>
@@ -5333,20 +5538,26 @@
       <c r="C156" t="s">
         <v>18</v>
       </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
       <c r="E156" t="s">
         <v>222</v>
       </c>
       <c r="F156" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="G156" t="s">
+        <v>585</v>
+      </c>
+      <c r="H156" t="s">
         <v>565</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>317</v>
       </c>
@@ -5356,20 +5567,26 @@
       <c r="C157" t="s">
         <v>18</v>
       </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
       <c r="E157" t="s">
         <v>224</v>
       </c>
       <c r="F157" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="G157" t="s">
+        <v>586</v>
+      </c>
+      <c r="H157" t="s">
         <v>565</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>318</v>
       </c>
@@ -5379,20 +5596,26 @@
       <c r="C158" t="s">
         <v>18</v>
       </c>
+      <c r="D158">
+        <v>10</v>
+      </c>
       <c r="E158" t="s">
         <v>226</v>
       </c>
       <c r="F158" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="G158" t="s">
+        <v>585</v>
+      </c>
+      <c r="H158" t="s">
         <v>565</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>319</v>
       </c>
@@ -5402,20 +5625,26 @@
       <c r="C159" t="s">
         <v>18</v>
       </c>
+      <c r="D159">
+        <v>11</v>
+      </c>
       <c r="E159" t="s">
         <v>228</v>
       </c>
       <c r="F159" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="G159" t="s">
+        <v>587</v>
+      </c>
+      <c r="H159" t="s">
         <v>565</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>320</v>
       </c>
@@ -5425,14 +5654,26 @@
       <c r="C160" t="s">
         <v>18</v>
       </c>
+      <c r="D160">
+        <v>12</v>
+      </c>
       <c r="E160" t="s">
         <v>230</v>
       </c>
       <c r="F160" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="G160" t="s">
+        <v>588</v>
+      </c>
+      <c r="H160" t="s">
+        <v>565</v>
+      </c>
+      <c r="I160" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>321</v>
       </c>
@@ -5442,14 +5683,26 @@
       <c r="C161" t="s">
         <v>18</v>
       </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
       <c r="E161" t="s">
         <v>232</v>
       </c>
       <c r="F161" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="G161" t="s">
+        <v>589</v>
+      </c>
+      <c r="H161" t="s">
+        <v>565</v>
+      </c>
+      <c r="I161" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>322</v>
       </c>
@@ -5459,14 +5712,26 @@
       <c r="C162" t="s">
         <v>18</v>
       </c>
+      <c r="D162">
+        <v>14</v>
+      </c>
       <c r="E162" t="s">
         <v>234</v>
       </c>
       <c r="F162" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="G162" t="s">
+        <v>590</v>
+      </c>
+      <c r="H162" t="s">
+        <v>565</v>
+      </c>
+      <c r="I162" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>323</v>
       </c>
@@ -5476,14 +5741,26 @@
       <c r="C163" t="s">
         <v>18</v>
       </c>
+      <c r="D163">
+        <v>15</v>
+      </c>
       <c r="E163" t="s">
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="F163" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="G163" t="s">
+        <v>596</v>
+      </c>
+      <c r="H163" t="s">
+        <v>565</v>
+      </c>
+      <c r="I163" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>324</v>
       </c>
@@ -5493,14 +5770,26 @@
       <c r="C164" t="s">
         <v>18</v>
       </c>
+      <c r="D164">
+        <v>16</v>
+      </c>
       <c r="E164" t="s">
-        <v>236</v>
+        <v>592</v>
       </c>
       <c r="F164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="G164" t="s">
+        <v>597</v>
+      </c>
+      <c r="H164" t="s">
+        <v>565</v>
+      </c>
+      <c r="I164" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>325</v>
       </c>
@@ -5510,14 +5799,26 @@
       <c r="C165" t="s">
         <v>18</v>
       </c>
+      <c r="D165">
+        <v>17</v>
+      </c>
       <c r="E165" t="s">
-        <v>236</v>
+        <v>593</v>
       </c>
       <c r="F165" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="G165" t="s">
+        <v>599</v>
+      </c>
+      <c r="H165" t="s">
+        <v>565</v>
+      </c>
+      <c r="I165" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>326</v>
       </c>
@@ -5527,113 +5828,89 @@
       <c r="C166" t="s">
         <v>18</v>
       </c>
+      <c r="D166">
+        <v>18</v>
+      </c>
       <c r="E166" t="s">
-        <v>236</v>
+        <v>594</v>
       </c>
       <c r="F166" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>327</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="G166" t="s">
+        <v>600</v>
+      </c>
+      <c r="H166" t="s">
+        <v>565</v>
+      </c>
+      <c r="I166" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>208</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
       </c>
+      <c r="D167">
+        <v>19</v>
+      </c>
       <c r="E167" t="s">
-        <v>241</v>
+        <v>598</v>
       </c>
       <c r="F167" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
+        <v>619</v>
+      </c>
+      <c r="G167" t="s">
+        <v>601</v>
+      </c>
+      <c r="H167" t="s">
+        <v>565</v>
+      </c>
+      <c r="I167" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>208</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>208</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>327</v>
+      </c>
+      <c r="B171" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>350</v>
-      </c>
-      <c r="B168" t="s">
-        <v>208</v>
-      </c>
-      <c r="C168" t="s">
-        <v>64</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168" t="s">
-        <v>212</v>
-      </c>
-      <c r="F168" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>351</v>
-      </c>
-      <c r="B169" t="s">
-        <v>208</v>
-      </c>
-      <c r="C169" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s">
-        <v>214</v>
-      </c>
-      <c r="F169" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>352</v>
-      </c>
-      <c r="B170" t="s">
-        <v>208</v>
-      </c>
-      <c r="C170" t="s">
-        <v>64</v>
-      </c>
-      <c r="D170">
-        <v>3</v>
-      </c>
-      <c r="E170" t="s">
-        <v>214</v>
-      </c>
-      <c r="F170" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>353</v>
-      </c>
-      <c r="B171" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-      <c r="E171" t="s">
-        <v>216</v>
-      </c>
-      <c r="F171" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>354</v>
       </c>
       <c r="B172" t="s">
         <v>208</v>
@@ -5642,18 +5919,18 @@
         <v>64</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F172" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B173" t="s">
         <v>208</v>
@@ -5662,18 +5939,18 @@
         <v>64</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F173" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B174" t="s">
         <v>208</v>
@@ -5682,18 +5959,18 @@
         <v>64</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F174" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B175" t="s">
         <v>208</v>
@@ -5702,18 +5979,18 @@
         <v>64</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F175" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B176" t="s">
         <v>208</v>
@@ -5722,18 +5999,18 @@
         <v>64</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F176" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B177" t="s">
         <v>208</v>
@@ -5742,18 +6019,18 @@
         <v>64</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F177" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B178" t="s">
         <v>208</v>
@@ -5762,18 +6039,18 @@
         <v>64</v>
       </c>
       <c r="D178">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F178" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B179" t="s">
         <v>208</v>
@@ -5782,18 +6059,18 @@
         <v>64</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F179" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B180" t="s">
         <v>208</v>
@@ -5802,18 +6079,18 @@
         <v>64</v>
       </c>
       <c r="D180">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F180" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B181" t="s">
         <v>208</v>
@@ -5822,18 +6099,18 @@
         <v>64</v>
       </c>
       <c r="D181">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F181" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B182" t="s">
         <v>208</v>
@@ -5842,18 +6119,18 @@
         <v>64</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F182" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
         <v>208</v>
@@ -5862,18 +6139,18 @@
         <v>64</v>
       </c>
       <c r="D183">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F183" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
         <v>208</v>
@@ -5882,18 +6159,18 @@
         <v>64</v>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F184" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B185" t="s">
         <v>208</v>
@@ -5902,18 +6179,18 @@
         <v>64</v>
       </c>
       <c r="D185">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E185" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F185" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B186" t="s">
         <v>208</v>
@@ -5922,18 +6199,18 @@
         <v>64</v>
       </c>
       <c r="D186">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F186" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B187" t="s">
         <v>208</v>
@@ -5942,18 +6219,18 @@
         <v>64</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F187" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B188" t="s">
         <v>208</v>
@@ -5962,18 +6239,18 @@
         <v>64</v>
       </c>
       <c r="D188">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F188" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B189" t="s">
         <v>208</v>
@@ -5982,18 +6259,18 @@
         <v>64</v>
       </c>
       <c r="D189">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E189" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F189" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B190" t="s">
         <v>208</v>
@@ -6002,98 +6279,98 @@
         <v>64</v>
       </c>
       <c r="D190">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E190" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F190" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="B191" t="s">
         <v>208</v>
       </c>
       <c r="C191" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="F191" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B192" t="s">
         <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E192" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="F192" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="B193" t="s">
         <v>208</v>
       </c>
       <c r="C193" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="F193" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="B194" t="s">
         <v>208</v>
       </c>
       <c r="C194" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E194" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="F194" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B195" t="s">
         <v>208</v>
@@ -6102,18 +6379,18 @@
         <v>85</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
         <v>86</v>
       </c>
       <c r="F195" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B196" t="s">
         <v>208</v>
@@ -6122,18 +6399,18 @@
         <v>85</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
         <v>86</v>
       </c>
       <c r="F196" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B197" t="s">
         <v>208</v>
@@ -6142,18 +6419,18 @@
         <v>85</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
         <v>86</v>
       </c>
       <c r="F197" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B198" t="s">
         <v>208</v>
@@ -6162,18 +6439,18 @@
         <v>85</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
         <v>86</v>
       </c>
       <c r="F198" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B199" t="s">
         <v>208</v>
@@ -6182,18 +6459,18 @@
         <v>85</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E199" t="s">
         <v>86</v>
       </c>
       <c r="F199" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B200" t="s">
         <v>208</v>
@@ -6202,18 +6479,18 @@
         <v>85</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E200" t="s">
         <v>86</v>
       </c>
       <c r="F200" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B201" t="s">
         <v>208</v>
@@ -6222,18 +6499,18 @@
         <v>85</v>
       </c>
       <c r="D201">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
         <v>86</v>
       </c>
       <c r="F201" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B202" t="s">
         <v>208</v>
@@ -6242,18 +6519,18 @@
         <v>85</v>
       </c>
       <c r="D202">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E202" t="s">
         <v>86</v>
       </c>
       <c r="F202" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B203" t="s">
         <v>208</v>
@@ -6262,18 +6539,18 @@
         <v>85</v>
       </c>
       <c r="D203">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E203" t="s">
         <v>86</v>
       </c>
       <c r="F203" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B204" t="s">
         <v>208</v>
@@ -6282,18 +6559,18 @@
         <v>85</v>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
         <v>86</v>
       </c>
       <c r="F204" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B205" t="s">
         <v>208</v>
@@ -6302,18 +6579,18 @@
         <v>85</v>
       </c>
       <c r="D205">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F205" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B206" t="s">
         <v>208</v>
@@ -6322,18 +6599,18 @@
         <v>85</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E206" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F206" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -6342,18 +6619,18 @@
         <v>85</v>
       </c>
       <c r="D207">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E207" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F207" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
@@ -6362,18 +6639,18 @@
         <v>85</v>
       </c>
       <c r="D208">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F208" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
@@ -6382,18 +6659,18 @@
         <v>85</v>
       </c>
       <c r="D209">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E209" t="s">
         <v>103</v>
       </c>
       <c r="F209" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
         <v>208</v>
@@ -6402,18 +6679,18 @@
         <v>85</v>
       </c>
       <c r="D210">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E210" t="s">
         <v>103</v>
       </c>
       <c r="F210" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B211" t="s">
         <v>208</v>
@@ -6422,18 +6699,18 @@
         <v>85</v>
       </c>
       <c r="D211">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E211" t="s">
         <v>103</v>
       </c>
       <c r="F211" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
         <v>208</v>
@@ -6442,18 +6719,18 @@
         <v>85</v>
       </c>
       <c r="D212">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E212" t="s">
         <v>103</v>
       </c>
       <c r="F212" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B213" t="s">
         <v>208</v>
@@ -6462,18 +6739,18 @@
         <v>85</v>
       </c>
       <c r="D213">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E213" t="s">
         <v>103</v>
       </c>
       <c r="F213" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B214" t="s">
         <v>208</v>
@@ -6482,18 +6759,18 @@
         <v>85</v>
       </c>
       <c r="D214">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E214" t="s">
         <v>103</v>
       </c>
       <c r="F214" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B215" t="s">
         <v>208</v>
@@ -6502,18 +6779,18 @@
         <v>85</v>
       </c>
       <c r="D215">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E215" t="s">
         <v>103</v>
       </c>
       <c r="F215" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B216" t="s">
         <v>208</v>
@@ -6522,18 +6799,18 @@
         <v>85</v>
       </c>
       <c r="D216">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E216" t="s">
         <v>103</v>
       </c>
       <c r="F216" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B217" t="s">
         <v>208</v>
@@ -6542,18 +6819,18 @@
         <v>85</v>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E217" t="s">
         <v>103</v>
       </c>
       <c r="F217" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B218" t="s">
         <v>208</v>
@@ -6562,18 +6839,18 @@
         <v>85</v>
       </c>
       <c r="D218">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
         <v>103</v>
       </c>
       <c r="F218" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B219" t="s">
         <v>208</v>
@@ -6582,18 +6859,18 @@
         <v>85</v>
       </c>
       <c r="D219">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F219" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B220" t="s">
         <v>208</v>
@@ -6602,18 +6879,18 @@
         <v>85</v>
       </c>
       <c r="D220">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E220" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F220" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B221" t="s">
         <v>208</v>
@@ -6622,18 +6899,18 @@
         <v>85</v>
       </c>
       <c r="D221">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F221" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B222" t="s">
         <v>208</v>
@@ -6642,18 +6919,18 @@
         <v>85</v>
       </c>
       <c r="D222">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E222" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F222" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B223" t="s">
         <v>208</v>
@@ -6662,18 +6939,18 @@
         <v>85</v>
       </c>
       <c r="D223">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E223" t="s">
         <v>120</v>
       </c>
       <c r="F223" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B224" t="s">
         <v>208</v>
@@ -6682,18 +6959,18 @@
         <v>85</v>
       </c>
       <c r="D224">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E224" t="s">
         <v>120</v>
       </c>
       <c r="F224" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B225" t="s">
         <v>208</v>
@@ -6702,18 +6979,18 @@
         <v>85</v>
       </c>
       <c r="D225">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E225" t="s">
         <v>120</v>
       </c>
       <c r="F225" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B226" t="s">
         <v>208</v>
@@ -6722,18 +6999,18 @@
         <v>85</v>
       </c>
       <c r="D226">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E226" t="s">
         <v>120</v>
       </c>
       <c r="F226" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B227" t="s">
         <v>208</v>
@@ -6742,18 +7019,18 @@
         <v>85</v>
       </c>
       <c r="D227">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E227" t="s">
         <v>120</v>
       </c>
       <c r="F227" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B228" t="s">
         <v>208</v>
@@ -6762,18 +7039,18 @@
         <v>85</v>
       </c>
       <c r="D228">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E228" t="s">
         <v>120</v>
       </c>
       <c r="F228" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B229" t="s">
         <v>208</v>
@@ -6782,18 +7059,18 @@
         <v>85</v>
       </c>
       <c r="D229">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E229" t="s">
         <v>120</v>
       </c>
       <c r="F229" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B230" t="s">
         <v>208</v>
@@ -6802,18 +7079,18 @@
         <v>85</v>
       </c>
       <c r="D230">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E230" t="s">
         <v>120</v>
       </c>
       <c r="F230" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B231" t="s">
         <v>208</v>
@@ -6822,18 +7099,18 @@
         <v>85</v>
       </c>
       <c r="D231">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E231" t="s">
         <v>120</v>
       </c>
       <c r="F231" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B232" t="s">
         <v>208</v>
@@ -6842,18 +7119,18 @@
         <v>85</v>
       </c>
       <c r="D232">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E232" t="s">
         <v>120</v>
       </c>
       <c r="F232" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B233" t="s">
         <v>208</v>
@@ -6862,18 +7139,18 @@
         <v>85</v>
       </c>
       <c r="D233">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E233" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F233" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B234" t="s">
         <v>208</v>
@@ -6882,18 +7159,18 @@
         <v>85</v>
       </c>
       <c r="D234">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E234" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F234" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B235" t="s">
         <v>208</v>
@@ -6902,18 +7179,18 @@
         <v>85</v>
       </c>
       <c r="D235">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E235" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F235" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B236" t="s">
         <v>208</v>
@@ -6922,18 +7199,18 @@
         <v>85</v>
       </c>
       <c r="D236">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E236" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F236" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B237" t="s">
         <v>208</v>
@@ -6942,18 +7219,18 @@
         <v>85</v>
       </c>
       <c r="D237">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E237" t="s">
         <v>137</v>
       </c>
       <c r="F237" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B238" t="s">
         <v>208</v>
@@ -6962,18 +7239,18 @@
         <v>85</v>
       </c>
       <c r="D238">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E238" t="s">
         <v>137</v>
       </c>
       <c r="F238" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B239" t="s">
         <v>208</v>
@@ -6982,18 +7259,18 @@
         <v>85</v>
       </c>
       <c r="D239">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E239" t="s">
         <v>137</v>
       </c>
       <c r="F239" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B240" t="s">
         <v>208</v>
@@ -7002,18 +7279,18 @@
         <v>85</v>
       </c>
       <c r="D240">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E240" t="s">
         <v>137</v>
       </c>
       <c r="F240" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B241" t="s">
         <v>208</v>
@@ -7022,18 +7299,18 @@
         <v>85</v>
       </c>
       <c r="D241">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E241" t="s">
         <v>137</v>
       </c>
       <c r="F241" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B242" t="s">
         <v>208</v>
@@ -7042,18 +7319,18 @@
         <v>85</v>
       </c>
       <c r="D242">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E242" t="s">
         <v>137</v>
       </c>
       <c r="F242" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B243" t="s">
         <v>208</v>
@@ -7062,18 +7339,18 @@
         <v>85</v>
       </c>
       <c r="D243">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E243" t="s">
         <v>137</v>
       </c>
       <c r="F243" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B244" t="s">
         <v>208</v>
@@ -7082,18 +7359,18 @@
         <v>85</v>
       </c>
       <c r="D244">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E244" t="s">
         <v>137</v>
       </c>
       <c r="F244" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B245" t="s">
         <v>208</v>
@@ -7102,18 +7379,18 @@
         <v>85</v>
       </c>
       <c r="D245">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E245" t="s">
         <v>137</v>
       </c>
       <c r="F245" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B246" t="s">
         <v>208</v>
@@ -7122,18 +7399,18 @@
         <v>85</v>
       </c>
       <c r="D246">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E246" t="s">
         <v>137</v>
       </c>
       <c r="F246" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B247" t="s">
         <v>208</v>
@@ -7142,18 +7419,18 @@
         <v>85</v>
       </c>
       <c r="D247">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E247" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F247" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B248" t="s">
         <v>208</v>
@@ -7162,18 +7439,18 @@
         <v>85</v>
       </c>
       <c r="D248">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E248" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F248" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B249" t="s">
         <v>208</v>
@@ -7182,18 +7459,18 @@
         <v>85</v>
       </c>
       <c r="D249">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E249" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F249" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B250" t="s">
         <v>208</v>
@@ -7202,18 +7479,18 @@
         <v>85</v>
       </c>
       <c r="D250">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E250" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F250" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B251" t="s">
         <v>208</v>
@@ -7222,18 +7499,18 @@
         <v>85</v>
       </c>
       <c r="D251">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E251" t="s">
         <v>154</v>
       </c>
       <c r="F251" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B252" t="s">
         <v>208</v>
@@ -7242,18 +7519,18 @@
         <v>85</v>
       </c>
       <c r="D252">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E252" t="s">
         <v>154</v>
       </c>
       <c r="F252" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B253" t="s">
         <v>208</v>
@@ -7262,18 +7539,18 @@
         <v>85</v>
       </c>
       <c r="D253">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E253" t="s">
         <v>154</v>
       </c>
       <c r="F253" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B254" t="s">
         <v>208</v>
@@ -7282,18 +7559,18 @@
         <v>85</v>
       </c>
       <c r="D254">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E254" t="s">
         <v>154</v>
       </c>
       <c r="F254" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B255" t="s">
         <v>208</v>
@@ -7302,18 +7579,18 @@
         <v>85</v>
       </c>
       <c r="D255">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E255" t="s">
         <v>154</v>
       </c>
       <c r="F255" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B256" t="s">
         <v>208</v>
@@ -7322,18 +7599,18 @@
         <v>85</v>
       </c>
       <c r="D256">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E256" t="s">
         <v>154</v>
       </c>
       <c r="F256" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B257" t="s">
         <v>208</v>
@@ -7342,18 +7619,18 @@
         <v>85</v>
       </c>
       <c r="D257">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E257" t="s">
         <v>154</v>
       </c>
       <c r="F257" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B258" t="s">
         <v>208</v>
@@ -7362,18 +7639,18 @@
         <v>85</v>
       </c>
       <c r="D258">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E258" t="s">
         <v>154</v>
       </c>
       <c r="F258" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B259" t="s">
         <v>208</v>
@@ -7382,18 +7659,18 @@
         <v>85</v>
       </c>
       <c r="D259">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E259" t="s">
         <v>154</v>
       </c>
       <c r="F259" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B260" t="s">
         <v>208</v>
@@ -7402,18 +7679,18 @@
         <v>85</v>
       </c>
       <c r="D260">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E260" t="s">
         <v>154</v>
       </c>
       <c r="F260" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B261" t="s">
         <v>208</v>
@@ -7422,18 +7699,18 @@
         <v>85</v>
       </c>
       <c r="D261">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E261" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F261" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B262" t="s">
         <v>208</v>
@@ -7442,18 +7719,18 @@
         <v>85</v>
       </c>
       <c r="D262">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E262" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="F262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B263" t="s">
         <v>208</v>
@@ -7462,18 +7739,18 @@
         <v>85</v>
       </c>
       <c r="D263">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E263" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F263" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B264" t="s">
         <v>208</v>
@@ -7482,18 +7759,18 @@
         <v>85</v>
       </c>
       <c r="D264">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E264" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F264" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B265" t="s">
         <v>208</v>
@@ -7502,98 +7779,98 @@
         <v>85</v>
       </c>
       <c r="D265">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E265" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F265" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B266" t="s">
         <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E266" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="F266" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B267" t="s">
         <v>208</v>
       </c>
       <c r="C267" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E267" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="F267" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B268" t="s">
         <v>208</v>
       </c>
       <c r="C268" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E268" t="s">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="F268" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B269" t="s">
         <v>208</v>
       </c>
       <c r="C269" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E269" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F269" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B270" t="s">
         <v>208</v>
@@ -7602,18 +7879,18 @@
         <v>176</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F270" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B271" t="s">
         <v>208</v>
@@ -7622,18 +7899,18 @@
         <v>176</v>
       </c>
       <c r="D271">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E271" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="F271" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B272" t="s">
         <v>208</v>
@@ -7642,18 +7919,18 @@
         <v>176</v>
       </c>
       <c r="D272">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F272" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B273" t="s">
         <v>208</v>
@@ -7662,18 +7939,18 @@
         <v>176</v>
       </c>
       <c r="D273">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E273" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="F273" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B274" t="s">
         <v>208</v>
@@ -7682,98 +7959,98 @@
         <v>176</v>
       </c>
       <c r="D274">
+        <v>5</v>
+      </c>
+      <c r="E274" t="s">
+        <v>342</v>
+      </c>
+      <c r="F274" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>485</v>
+      </c>
+      <c r="B275" t="s">
+        <v>208</v>
+      </c>
+      <c r="C275" t="s">
+        <v>176</v>
+      </c>
+      <c r="D275">
+        <v>6</v>
+      </c>
+      <c r="E275" t="s">
+        <v>344</v>
+      </c>
+      <c r="F275" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>486</v>
+      </c>
+      <c r="B276" t="s">
+        <v>208</v>
+      </c>
+      <c r="C276" t="s">
+        <v>176</v>
+      </c>
+      <c r="D276">
+        <v>7</v>
+      </c>
+      <c r="E276" t="s">
+        <v>346</v>
+      </c>
+      <c r="F276" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>487</v>
+      </c>
+      <c r="B277" t="s">
+        <v>208</v>
+      </c>
+      <c r="C277" t="s">
+        <v>176</v>
+      </c>
+      <c r="D277">
+        <v>8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>346</v>
+      </c>
+      <c r="F277" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>488</v>
+      </c>
+      <c r="B278" t="s">
+        <v>208</v>
+      </c>
+      <c r="C278" t="s">
+        <v>176</v>
+      </c>
+      <c r="D278">
         <v>9</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E278" t="s">
         <v>349</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F278" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>490</v>
-      </c>
-      <c r="B275" t="s">
-        <v>208</v>
-      </c>
-      <c r="C275" t="s">
-        <v>191</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-      <c r="E275" t="s">
-        <v>192</v>
-      </c>
-      <c r="F275" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>491</v>
-      </c>
-      <c r="B276" t="s">
-        <v>208</v>
-      </c>
-      <c r="C276" t="s">
-        <v>191</v>
-      </c>
-      <c r="D276">
-        <v>2</v>
-      </c>
-      <c r="E276" t="s">
-        <v>194</v>
-      </c>
-      <c r="F276" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>492</v>
-      </c>
-      <c r="B277" t="s">
-        <v>208</v>
-      </c>
-      <c r="C277" t="s">
-        <v>191</v>
-      </c>
-      <c r="D277">
-        <v>3</v>
-      </c>
-      <c r="E277" t="s">
-        <v>196</v>
-      </c>
-      <c r="F277" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>493</v>
-      </c>
-      <c r="B278" t="s">
-        <v>208</v>
-      </c>
-      <c r="C278" t="s">
-        <v>191</v>
-      </c>
-      <c r="D278">
-        <v>4</v>
-      </c>
-      <c r="E278" t="s">
-        <v>198</v>
-      </c>
-      <c r="F278" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>494</v>
       </c>
       <c r="B279" t="s">
         <v>208</v>
@@ -7782,18 +8059,21 @@
         <v>191</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F279" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="H279" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B280" t="s">
         <v>208</v>
@@ -7802,18 +8082,21 @@
         <v>191</v>
       </c>
       <c r="D280">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F280" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="H280" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B281" t="s">
         <v>208</v>
@@ -7822,18 +8105,21 @@
         <v>191</v>
       </c>
       <c r="D281">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F281" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="H281" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B282" t="s">
         <v>208</v>
@@ -7842,98 +8128,113 @@
         <v>191</v>
       </c>
       <c r="D282">
+        <v>4</v>
+      </c>
+      <c r="E282" t="s">
+        <v>198</v>
+      </c>
+      <c r="F282" t="s">
+        <v>622</v>
+      </c>
+      <c r="H282" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>494</v>
+      </c>
+      <c r="B283" t="s">
+        <v>208</v>
+      </c>
+      <c r="C283" t="s">
+        <v>191</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>200</v>
+      </c>
+      <c r="F283" t="s">
+        <v>623</v>
+      </c>
+      <c r="H283" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>495</v>
+      </c>
+      <c r="B284" t="s">
+        <v>208</v>
+      </c>
+      <c r="C284" t="s">
+        <v>191</v>
+      </c>
+      <c r="D284">
+        <v>6</v>
+      </c>
+      <c r="E284" t="s">
+        <v>202</v>
+      </c>
+      <c r="F284" t="s">
+        <v>356</v>
+      </c>
+      <c r="H284" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>496</v>
+      </c>
+      <c r="B285" t="s">
+        <v>208</v>
+      </c>
+      <c r="C285" t="s">
+        <v>191</v>
+      </c>
+      <c r="D285">
+        <v>7</v>
+      </c>
+      <c r="E285" t="s">
+        <v>204</v>
+      </c>
+      <c r="F285" t="s">
+        <v>357</v>
+      </c>
+      <c r="H285" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>497</v>
+      </c>
+      <c r="B286" t="s">
+        <v>208</v>
+      </c>
+      <c r="C286" t="s">
+        <v>191</v>
+      </c>
+      <c r="D286">
         <v>8</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E286" t="s">
         <v>206</v>
       </c>
-      <c r="F282" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="F286" t="s">
+        <v>624</v>
+      </c>
+      <c r="H286" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>600</v>
-      </c>
-      <c r="B283" t="s">
-        <v>359</v>
-      </c>
-      <c r="C283" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283" t="s">
-        <v>8</v>
-      </c>
-      <c r="F283" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>601</v>
-      </c>
-      <c r="B284" t="s">
-        <v>359</v>
-      </c>
-      <c r="C284" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284">
-        <v>2</v>
-      </c>
-      <c r="E284" t="s">
-        <v>10</v>
-      </c>
-      <c r="F284" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>602</v>
-      </c>
-      <c r="B285" t="s">
-        <v>359</v>
-      </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285">
-        <v>3</v>
-      </c>
-      <c r="E285" t="s">
-        <v>12</v>
-      </c>
-      <c r="F285" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>603</v>
-      </c>
-      <c r="B286" t="s">
-        <v>359</v>
-      </c>
-      <c r="C286" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286">
-        <v>4</v>
-      </c>
-      <c r="E286" t="s">
-        <v>14</v>
-      </c>
-      <c r="F286" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>604</v>
       </c>
       <c r="B287" t="s">
         <v>359</v>
@@ -7942,98 +8243,98 @@
         <v>7</v>
       </c>
       <c r="D287">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F287" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B288" t="s">
         <v>359</v>
       </c>
       <c r="C288" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E288" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B289" t="s">
         <v>359</v>
       </c>
       <c r="C289" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="F289" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B290" t="s">
         <v>359</v>
       </c>
       <c r="C290" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E290" t="s">
-        <v>367</v>
+        <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B291" t="s">
         <v>359</v>
       </c>
       <c r="C291" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E291" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
       <c r="F291" t="s">
-        <v>370</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B292" t="s">
         <v>359</v>
@@ -8042,18 +8343,18 @@
         <v>18</v>
       </c>
       <c r="D292">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E292" t="s">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="F292" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B293" t="s">
         <v>359</v>
@@ -8062,18 +8363,18 @@
         <v>18</v>
       </c>
       <c r="D293">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E293" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F293" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B294" t="s">
         <v>359</v>
@@ -8082,18 +8383,18 @@
         <v>18</v>
       </c>
       <c r="D294">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E294" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F294" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B295" t="s">
         <v>359</v>
@@ -8102,18 +8403,18 @@
         <v>18</v>
       </c>
       <c r="D295">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E295" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F295" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B296" t="s">
         <v>359</v>
@@ -8122,18 +8423,18 @@
         <v>18</v>
       </c>
       <c r="D296">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E296" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="F296" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B297" t="s">
         <v>359</v>
@@ -8142,18 +8443,18 @@
         <v>18</v>
       </c>
       <c r="D297">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E297" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="F297" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B298" t="s">
         <v>359</v>
@@ -8162,18 +8463,18 @@
         <v>18</v>
       </c>
       <c r="D298">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E298" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F298" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B299" t="s">
         <v>359</v>
@@ -8182,18 +8483,18 @@
         <v>18</v>
       </c>
       <c r="D299">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E299" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F299" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B300" t="s">
         <v>359</v>
@@ -8202,18 +8503,18 @@
         <v>18</v>
       </c>
       <c r="D300">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E300" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F300" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B301" t="s">
         <v>359</v>
@@ -8222,18 +8523,18 @@
         <v>18</v>
       </c>
       <c r="D301">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E301" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F301" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B302" t="s">
         <v>359</v>
@@ -8242,18 +8543,18 @@
         <v>18</v>
       </c>
       <c r="D302">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E302" t="s">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="F302" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B303" t="s">
         <v>359</v>
@@ -8262,18 +8563,18 @@
         <v>18</v>
       </c>
       <c r="D303">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E303" t="s">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="F303" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B304" t="s">
         <v>359</v>
@@ -8282,18 +8583,18 @@
         <v>18</v>
       </c>
       <c r="D304">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E304" t="s">
-        <v>387</v>
+        <v>220</v>
       </c>
       <c r="F304" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B305" t="s">
         <v>359</v>
@@ -8302,18 +8603,18 @@
         <v>18</v>
       </c>
       <c r="D305">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E305" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="F305" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B306" t="s">
         <v>359</v>
@@ -8322,18 +8623,18 @@
         <v>18</v>
       </c>
       <c r="D306">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E306" t="s">
-        <v>391</v>
+        <v>228</v>
       </c>
       <c r="F306" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B307" t="s">
         <v>359</v>
@@ -8342,18 +8643,18 @@
         <v>18</v>
       </c>
       <c r="D307">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E307" t="s">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="F307" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B308" t="s">
         <v>359</v>
@@ -8362,18 +8663,18 @@
         <v>18</v>
       </c>
       <c r="D308">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E308" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F308" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B309" t="s">
         <v>359</v>
@@ -8382,18 +8683,18 @@
         <v>18</v>
       </c>
       <c r="D309">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E309" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F309" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B310" t="s">
         <v>359</v>
@@ -8402,18 +8703,18 @@
         <v>18</v>
       </c>
       <c r="D310">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E310" t="s">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="F310" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B311" t="s">
         <v>359</v>
@@ -8422,18 +8723,18 @@
         <v>18</v>
       </c>
       <c r="D311">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E311" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="F311" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B312" t="s">
         <v>359</v>
@@ -8442,18 +8743,18 @@
         <v>18</v>
       </c>
       <c r="D312">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E312" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F312" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B313" t="s">
         <v>359</v>
@@ -8462,18 +8763,18 @@
         <v>18</v>
       </c>
       <c r="D313">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E313" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F313" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B314" t="s">
         <v>359</v>
@@ -8482,98 +8783,98 @@
         <v>18</v>
       </c>
       <c r="D314">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E314" t="s">
-        <v>405</v>
+        <v>232</v>
       </c>
       <c r="F314" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
     </row>
     <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B315" t="s">
         <v>359</v>
       </c>
       <c r="C315" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E315" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F315" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B316" t="s">
         <v>359</v>
       </c>
       <c r="C316" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E316" t="s">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="F316" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
     </row>
     <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B317" t="s">
         <v>359</v>
       </c>
       <c r="C317" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D317">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E317" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="F317" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B318" t="s">
         <v>359</v>
       </c>
       <c r="C318" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="D318">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E318" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="F318" t="s">
-        <v>408</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B319" t="s">
         <v>359</v>
@@ -8582,18 +8883,18 @@
         <v>191</v>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E319" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F319" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B320" t="s">
         <v>359</v>
@@ -8602,18 +8903,18 @@
         <v>191</v>
       </c>
       <c r="D320">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E320" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F320" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B321" t="s">
         <v>359</v>
@@ -8622,18 +8923,18 @@
         <v>191</v>
       </c>
       <c r="D321">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E321" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F321" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B322" t="s">
         <v>359</v>
@@ -8642,98 +8943,98 @@
         <v>191</v>
       </c>
       <c r="D322">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E322" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F322" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B323" t="s">
         <v>359</v>
       </c>
       <c r="C323" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E323" t="s">
-        <v>411</v>
+        <v>200</v>
       </c>
       <c r="F323" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B324" t="s">
         <v>359</v>
       </c>
       <c r="C324" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E324" t="s">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="F324" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B325" t="s">
         <v>359</v>
       </c>
       <c r="C325" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E325" t="s">
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="F325" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B326" t="s">
         <v>359</v>
       </c>
       <c r="C326" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D326">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E326" t="s">
-        <v>369</v>
+        <v>206</v>
       </c>
       <c r="F326" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B327" t="s">
         <v>359</v>
@@ -8742,18 +9043,18 @@
         <v>64</v>
       </c>
       <c r="D327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="F327" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B328" t="s">
         <v>359</v>
@@ -8762,18 +9063,18 @@
         <v>64</v>
       </c>
       <c r="D328">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F328" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B329" t="s">
         <v>359</v>
@@ -8782,18 +9083,18 @@
         <v>64</v>
       </c>
       <c r="D329">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F329" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B330" t="s">
         <v>359</v>
@@ -8802,18 +9103,18 @@
         <v>64</v>
       </c>
       <c r="D330">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E330" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F330" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B331" t="s">
         <v>359</v>
@@ -8822,18 +9123,18 @@
         <v>64</v>
       </c>
       <c r="D331">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E331" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="F331" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B332" t="s">
         <v>359</v>
@@ -8842,18 +9143,18 @@
         <v>64</v>
       </c>
       <c r="D332">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="F332" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B333" t="s">
         <v>359</v>
@@ -8862,18 +9163,18 @@
         <v>64</v>
       </c>
       <c r="D333">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E333" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="F333" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B334" t="s">
         <v>359</v>
@@ -8882,18 +9183,18 @@
         <v>64</v>
       </c>
       <c r="D334">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E334" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="F334" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B335" t="s">
         <v>359</v>
@@ -8902,18 +9203,18 @@
         <v>64</v>
       </c>
       <c r="D335">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>414</v>
+        <v>222</v>
       </c>
       <c r="F335" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B336" t="s">
         <v>359</v>
@@ -8922,18 +9223,18 @@
         <v>64</v>
       </c>
       <c r="D336">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E336" t="s">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="F336" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B337" t="s">
         <v>359</v>
@@ -8942,18 +9243,18 @@
         <v>64</v>
       </c>
       <c r="D337">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E337" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="F337" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B338" t="s">
         <v>359</v>
@@ -8962,18 +9263,18 @@
         <v>64</v>
       </c>
       <c r="D338">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E338" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F338" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B339" t="s">
         <v>359</v>
@@ -8982,18 +9283,18 @@
         <v>64</v>
       </c>
       <c r="D339">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E339" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F339" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B340" t="s">
         <v>359</v>
@@ -9002,18 +9303,18 @@
         <v>64</v>
       </c>
       <c r="D340">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E340" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="F340" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B341" t="s">
         <v>359</v>
@@ -9022,18 +9323,18 @@
         <v>64</v>
       </c>
       <c r="D341">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E341" t="s">
-        <v>391</v>
+        <v>228</v>
       </c>
       <c r="F341" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B342" t="s">
         <v>359</v>
@@ -9042,18 +9343,18 @@
         <v>64</v>
       </c>
       <c r="D342">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E342" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="F342" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B343" t="s">
         <v>359</v>
@@ -9062,18 +9363,18 @@
         <v>64</v>
       </c>
       <c r="D343">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E343" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="F343" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B344" t="s">
         <v>359</v>
@@ -9082,18 +9383,18 @@
         <v>64</v>
       </c>
       <c r="D344">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E344" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F344" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B345" t="s">
         <v>359</v>
@@ -9102,18 +9403,18 @@
         <v>64</v>
       </c>
       <c r="D345">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E345" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="F345" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B346" t="s">
         <v>359</v>
@@ -9122,18 +9423,18 @@
         <v>64</v>
       </c>
       <c r="D346">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E346" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="F346" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B347" t="s">
         <v>359</v>
@@ -9142,18 +9443,18 @@
         <v>64</v>
       </c>
       <c r="D347">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E347" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F347" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B348" t="s">
         <v>359</v>
@@ -9162,18 +9463,18 @@
         <v>64</v>
       </c>
       <c r="D348">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E348" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F348" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B349" t="s">
         <v>359</v>
@@ -9182,98 +9483,98 @@
         <v>64</v>
       </c>
       <c r="D349">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E349" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F349" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
     </row>
     <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B350" t="s">
         <v>359</v>
       </c>
       <c r="C350" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E350" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="F350" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B351" t="s">
         <v>359</v>
       </c>
       <c r="C351" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E351" t="s">
-        <v>103</v>
+        <v>401</v>
       </c>
       <c r="F351" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B352" t="s">
         <v>359</v>
       </c>
       <c r="C352" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D352">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E352" t="s">
-        <v>120</v>
+        <v>403</v>
       </c>
       <c r="F352" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B353" t="s">
         <v>359</v>
       </c>
       <c r="C353" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D353">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E353" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="F353" t="s">
-        <v>424</v>
+        <v>242</v>
       </c>
     </row>
     <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B354" t="s">
         <v>359</v>
@@ -9282,18 +9583,18 @@
         <v>85</v>
       </c>
       <c r="D354">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E354" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F354" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B355" t="s">
         <v>359</v>
@@ -9302,18 +9603,18 @@
         <v>85</v>
       </c>
       <c r="D355">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E355" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F355" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B356" t="s">
         <v>359</v>
@@ -9322,18 +9623,18 @@
         <v>85</v>
       </c>
       <c r="D356">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E356" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F356" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B357" t="s">
         <v>359</v>
@@ -9342,18 +9643,18 @@
         <v>85</v>
       </c>
       <c r="D357">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E357" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F357" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
@@ -9362,18 +9663,18 @@
         <v>85</v>
       </c>
       <c r="D358">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E358" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F358" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B359" t="s">
         <v>359</v>
@@ -9382,18 +9683,18 @@
         <v>85</v>
       </c>
       <c r="D359">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E359" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F359" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B360" t="s">
         <v>359</v>
@@ -9402,18 +9703,18 @@
         <v>85</v>
       </c>
       <c r="D360">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E360" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F360" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B361" t="s">
         <v>359</v>
@@ -9422,18 +9723,18 @@
         <v>85</v>
       </c>
       <c r="D361">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E361" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F361" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B362" t="s">
         <v>359</v>
@@ -9442,18 +9743,18 @@
         <v>85</v>
       </c>
       <c r="D362">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E362" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F362" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B363" t="s">
         <v>359</v>
@@ -9462,18 +9763,18 @@
         <v>85</v>
       </c>
       <c r="D363">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E363" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F363" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B364" t="s">
         <v>359</v>
@@ -9482,18 +9783,18 @@
         <v>85</v>
       </c>
       <c r="D364">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E364" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F364" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B365" t="s">
         <v>359</v>
@@ -9502,18 +9803,18 @@
         <v>85</v>
       </c>
       <c r="D365">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E365" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F365" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B366" t="s">
         <v>359</v>
@@ -9522,18 +9823,18 @@
         <v>85</v>
       </c>
       <c r="D366">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E366" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F366" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B367" t="s">
         <v>359</v>
@@ -9542,18 +9843,18 @@
         <v>85</v>
       </c>
       <c r="D367">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E367" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F367" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B368" t="s">
         <v>359</v>
@@ -9562,18 +9863,18 @@
         <v>85</v>
       </c>
       <c r="D368">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E368" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F368" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B369" t="s">
         <v>359</v>
@@ -9582,18 +9883,18 @@
         <v>85</v>
       </c>
       <c r="D369">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E369" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F369" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B370" t="s">
         <v>359</v>
@@ -9602,18 +9903,18 @@
         <v>85</v>
       </c>
       <c r="D370">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E370" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F370" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B371" t="s">
         <v>359</v>
@@ -9622,18 +9923,18 @@
         <v>85</v>
       </c>
       <c r="D371">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E371" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F371" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B372" t="s">
         <v>359</v>
@@ -9642,18 +9943,18 @@
         <v>85</v>
       </c>
       <c r="D372">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E372" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F372" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B373" t="s">
         <v>359</v>
@@ -9662,18 +9963,18 @@
         <v>85</v>
       </c>
       <c r="D373">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E373" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F373" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B374" t="s">
         <v>359</v>
@@ -9682,18 +9983,18 @@
         <v>85</v>
       </c>
       <c r="D374">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E374" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F374" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B375" t="s">
         <v>359</v>
@@ -9702,18 +10003,18 @@
         <v>85</v>
       </c>
       <c r="D375">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E375" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F375" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B376" t="s">
         <v>359</v>
@@ -9722,18 +10023,18 @@
         <v>85</v>
       </c>
       <c r="D376">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E376" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F376" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B377" t="s">
         <v>359</v>
@@ -9742,18 +10043,18 @@
         <v>85</v>
       </c>
       <c r="D377">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E377" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F377" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B378" t="s">
         <v>359</v>
@@ -9762,18 +10063,18 @@
         <v>85</v>
       </c>
       <c r="D378">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E378" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F378" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B379" t="s">
         <v>359</v>
@@ -9782,18 +10083,18 @@
         <v>85</v>
       </c>
       <c r="D379">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E379" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F379" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B380" t="s">
         <v>359</v>
@@ -9802,18 +10103,18 @@
         <v>85</v>
       </c>
       <c r="D380">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E380" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F380" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B381" t="s">
         <v>359</v>
@@ -9822,18 +10123,18 @@
         <v>85</v>
       </c>
       <c r="D381">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E381" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F381" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B382" t="s">
         <v>359</v>
@@ -9842,18 +10143,18 @@
         <v>85</v>
       </c>
       <c r="D382">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E382" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F382" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B383" t="s">
         <v>359</v>
@@ -9862,18 +10163,18 @@
         <v>85</v>
       </c>
       <c r="D383">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E383" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F383" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B384" t="s">
         <v>359</v>
@@ -9882,18 +10183,18 @@
         <v>85</v>
       </c>
       <c r="D384">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E384" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F384" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B385" t="s">
         <v>359</v>
@@ -9902,18 +10203,18 @@
         <v>85</v>
       </c>
       <c r="D385">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E385" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F385" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B386" t="s">
         <v>359</v>
@@ -9922,18 +10223,18 @@
         <v>85</v>
       </c>
       <c r="D386">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E386" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F386" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B387" t="s">
         <v>359</v>
@@ -9942,18 +10243,18 @@
         <v>85</v>
       </c>
       <c r="D387">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E387" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F387" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B388" t="s">
         <v>359</v>
@@ -9962,18 +10263,18 @@
         <v>85</v>
       </c>
       <c r="D388">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E388" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F388" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B389" t="s">
         <v>359</v>
@@ -9982,18 +10283,18 @@
         <v>85</v>
       </c>
       <c r="D389">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E389" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F389" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B390" t="s">
         <v>359</v>
@@ -10002,18 +10303,18 @@
         <v>85</v>
       </c>
       <c r="D390">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E390" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F390" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B391" t="s">
         <v>359</v>
@@ -10022,18 +10323,18 @@
         <v>85</v>
       </c>
       <c r="D391">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E391" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F391" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B392" t="s">
         <v>359</v>
@@ -10042,18 +10343,18 @@
         <v>85</v>
       </c>
       <c r="D392">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E392" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F392" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B393" t="s">
         <v>359</v>
@@ -10062,18 +10363,18 @@
         <v>85</v>
       </c>
       <c r="D393">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E393" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F393" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B394" t="s">
         <v>359</v>
@@ -10082,18 +10383,18 @@
         <v>85</v>
       </c>
       <c r="D394">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E394" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F394" t="s">
-        <v>322</v>
+        <v>461</v>
       </c>
     </row>
     <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B395" t="s">
         <v>359</v>
@@ -10102,18 +10403,18 @@
         <v>85</v>
       </c>
       <c r="D395">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E395" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F395" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B396" t="s">
         <v>359</v>
@@ -10122,18 +10423,18 @@
         <v>85</v>
       </c>
       <c r="D396">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E396" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F396" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B397" t="s">
         <v>359</v>
@@ -10142,18 +10443,18 @@
         <v>85</v>
       </c>
       <c r="D397">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E397" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F397" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B398" t="s">
         <v>359</v>
@@ -10162,18 +10463,18 @@
         <v>85</v>
       </c>
       <c r="D398">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E398" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F398" t="s">
-        <v>468</v>
+        <v>322</v>
       </c>
     </row>
     <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B399" t="s">
         <v>359</v>
@@ -10182,18 +10483,18 @@
         <v>85</v>
       </c>
       <c r="D399">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E399" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F399" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B400" t="s">
         <v>359</v>
@@ -10202,18 +10503,18 @@
         <v>85</v>
       </c>
       <c r="D400">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E400" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F400" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B401" t="s">
         <v>359</v>
@@ -10222,18 +10523,18 @@
         <v>85</v>
       </c>
       <c r="D401">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E401" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F401" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B402" t="s">
         <v>359</v>
@@ -10242,18 +10543,18 @@
         <v>85</v>
       </c>
       <c r="D402">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E402" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F402" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B403" t="s">
         <v>359</v>
@@ -10262,18 +10563,18 @@
         <v>85</v>
       </c>
       <c r="D403">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E403" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F403" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B404" t="s">
         <v>359</v>
@@ -10282,18 +10583,18 @@
         <v>85</v>
       </c>
       <c r="D404">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E404" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F404" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B405" t="s">
         <v>359</v>
@@ -10302,18 +10603,18 @@
         <v>85</v>
       </c>
       <c r="D405">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E405" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F405" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B406" t="s">
         <v>359</v>
@@ -10322,18 +10623,18 @@
         <v>85</v>
       </c>
       <c r="D406">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E406" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F406" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B407" t="s">
         <v>359</v>
@@ -10342,18 +10643,18 @@
         <v>85</v>
       </c>
       <c r="D407">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E407" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F407" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B408" t="s">
         <v>359</v>
@@ -10362,18 +10663,18 @@
         <v>85</v>
       </c>
       <c r="D408">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E408" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F408" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B409" t="s">
         <v>359</v>
@@ -10382,18 +10683,18 @@
         <v>85</v>
       </c>
       <c r="D409">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E409" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F409" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B410" t="s">
         <v>359</v>
@@ -10402,18 +10703,18 @@
         <v>85</v>
       </c>
       <c r="D410">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E410" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F410" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B411" t="s">
         <v>359</v>
@@ -10422,18 +10723,18 @@
         <v>85</v>
       </c>
       <c r="D411">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E411" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F411" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B412" t="s">
         <v>359</v>
@@ -10442,18 +10743,18 @@
         <v>85</v>
       </c>
       <c r="D412">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E412" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F412" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B413" t="s">
         <v>359</v>
@@ -10462,18 +10763,18 @@
         <v>85</v>
       </c>
       <c r="D413">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E413" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F413" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B414" t="s">
         <v>359</v>
@@ -10482,18 +10783,18 @@
         <v>85</v>
       </c>
       <c r="D414">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E414" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F414" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B415" t="s">
         <v>359</v>
@@ -10502,18 +10803,18 @@
         <v>85</v>
       </c>
       <c r="D415">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E415" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F415" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B416" t="s">
         <v>359</v>
@@ -10522,18 +10823,18 @@
         <v>85</v>
       </c>
       <c r="D416">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E416" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F416" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B417" t="s">
         <v>359</v>
@@ -10542,18 +10843,18 @@
         <v>85</v>
       </c>
       <c r="D417">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E417" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F417" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B418" t="s">
         <v>359</v>
@@ -10562,18 +10863,18 @@
         <v>85</v>
       </c>
       <c r="D418">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E418" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F418" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B419" t="s">
         <v>359</v>
@@ -10582,18 +10883,18 @@
         <v>85</v>
       </c>
       <c r="D419">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E419" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F419" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B420" t="s">
         <v>359</v>
@@ -10602,18 +10903,18 @@
         <v>85</v>
       </c>
       <c r="D420">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E420" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F420" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B421" t="s">
         <v>359</v>
@@ -10622,18 +10923,18 @@
         <v>85</v>
       </c>
       <c r="D421">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E421" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F421" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B422" t="s">
         <v>359</v>
@@ -10642,18 +10943,18 @@
         <v>85</v>
       </c>
       <c r="D422">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E422" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F422" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B423" t="s">
         <v>359</v>
@@ -10662,18 +10963,18 @@
         <v>85</v>
       </c>
       <c r="D423">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E423" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F423" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B424" t="s">
         <v>359</v>
@@ -10682,18 +10983,18 @@
         <v>85</v>
       </c>
       <c r="D424">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E424" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F424" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B425" t="s">
         <v>359</v>
@@ -10702,18 +11003,18 @@
         <v>85</v>
       </c>
       <c r="D425">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E425" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F425" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B426" t="s">
         <v>359</v>
@@ -10722,18 +11023,18 @@
         <v>85</v>
       </c>
       <c r="D426">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E426" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F426" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B427" t="s">
         <v>359</v>
@@ -10742,18 +11043,18 @@
         <v>85</v>
       </c>
       <c r="D427">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E427" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F427" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B428" t="s">
         <v>359</v>
@@ -10762,18 +11063,18 @@
         <v>85</v>
       </c>
       <c r="D428">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E428" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F428" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B429" t="s">
         <v>359</v>
@@ -10782,18 +11083,18 @@
         <v>85</v>
       </c>
       <c r="D429">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E429" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F429" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B430" t="s">
         <v>359</v>
@@ -10802,18 +11103,18 @@
         <v>85</v>
       </c>
       <c r="D430">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E430" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F430" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B431" t="s">
         <v>359</v>
@@ -10822,18 +11123,18 @@
         <v>85</v>
       </c>
       <c r="D431">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E431" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F431" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B432" t="s">
         <v>359</v>
@@ -10842,18 +11143,18 @@
         <v>85</v>
       </c>
       <c r="D432">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E432" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F432" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B433" t="s">
         <v>359</v>
@@ -10862,18 +11163,18 @@
         <v>85</v>
       </c>
       <c r="D433">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E433" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F433" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B434" t="s">
         <v>359</v>
@@ -10882,18 +11183,18 @@
         <v>85</v>
       </c>
       <c r="D434">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E434" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F434" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B435" t="s">
         <v>359</v>
@@ -10902,18 +11203,18 @@
         <v>85</v>
       </c>
       <c r="D435">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E435" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F435" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B436" t="s">
         <v>359</v>
@@ -10922,18 +11223,18 @@
         <v>85</v>
       </c>
       <c r="D436">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E436" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F436" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B437" t="s">
         <v>359</v>
@@ -10942,18 +11243,18 @@
         <v>85</v>
       </c>
       <c r="D437">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E437" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F437" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B438" t="s">
         <v>359</v>
@@ -10962,18 +11263,18 @@
         <v>85</v>
       </c>
       <c r="D438">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E438" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F438" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B439" t="s">
         <v>359</v>
@@ -10982,18 +11283,18 @@
         <v>85</v>
       </c>
       <c r="D439">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E439" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F439" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B440" t="s">
         <v>359</v>
@@ -11002,18 +11303,18 @@
         <v>85</v>
       </c>
       <c r="D440">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E440" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F440" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B441" t="s">
         <v>359</v>
@@ -11022,18 +11323,18 @@
         <v>85</v>
       </c>
       <c r="D441">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E441" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F441" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B442" t="s">
         <v>359</v>
@@ -11042,18 +11343,18 @@
         <v>85</v>
       </c>
       <c r="D442">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E442" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F442" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B443" t="s">
         <v>359</v>
@@ -11062,18 +11363,18 @@
         <v>85</v>
       </c>
       <c r="D443">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E443" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F443" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B444" t="s">
         <v>359</v>
@@ -11082,18 +11383,18 @@
         <v>85</v>
       </c>
       <c r="D444">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E444" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F444" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B445" t="s">
         <v>359</v>
@@ -11102,18 +11403,18 @@
         <v>85</v>
       </c>
       <c r="D445">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E445" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F445" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B446" t="s">
         <v>359</v>
@@ -11122,18 +11423,18 @@
         <v>85</v>
       </c>
       <c r="D446">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E446" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F446" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B447" t="s">
         <v>359</v>
@@ -11142,18 +11443,18 @@
         <v>85</v>
       </c>
       <c r="D447">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E447" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F447" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B448" t="s">
         <v>359</v>
@@ -11162,18 +11463,18 @@
         <v>85</v>
       </c>
       <c r="D448">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E448" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F448" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B449" t="s">
         <v>359</v>
@@ -11182,18 +11483,18 @@
         <v>85</v>
       </c>
       <c r="D449">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E449" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F449" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B450" t="s">
         <v>359</v>
@@ -11202,18 +11503,18 @@
         <v>85</v>
       </c>
       <c r="D450">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E450" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F450" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B451" t="s">
         <v>359</v>
@@ -11222,18 +11523,18 @@
         <v>85</v>
       </c>
       <c r="D451">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E451" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F451" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B452" t="s">
         <v>359</v>
@@ -11242,18 +11543,18 @@
         <v>85</v>
       </c>
       <c r="D452">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E452" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F452" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B453" t="s">
         <v>359</v>
@@ -11262,18 +11563,18 @@
         <v>85</v>
       </c>
       <c r="D453">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E453" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F453" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B454" t="s">
         <v>359</v>
@@ -11282,18 +11583,18 @@
         <v>85</v>
       </c>
       <c r="D454">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E454" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F454" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B455" t="s">
         <v>359</v>
@@ -11302,18 +11603,18 @@
         <v>85</v>
       </c>
       <c r="D455">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E455" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F455" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B456" t="s">
         <v>359</v>
@@ -11322,18 +11623,18 @@
         <v>85</v>
       </c>
       <c r="D456">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E456" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F456" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B457" t="s">
         <v>359</v>
@@ -11342,18 +11643,18 @@
         <v>85</v>
       </c>
       <c r="D457">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E457" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F457" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B458" t="s">
         <v>359</v>
@@ -11362,18 +11663,18 @@
         <v>85</v>
       </c>
       <c r="D458">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E458" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F458" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B459" t="s">
         <v>359</v>
@@ -11382,18 +11683,18 @@
         <v>85</v>
       </c>
       <c r="D459">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E459" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F459" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B460" t="s">
         <v>359</v>
@@ -11402,18 +11703,18 @@
         <v>85</v>
       </c>
       <c r="D460">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E460" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F460" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B461" t="s">
         <v>359</v>
@@ -11422,18 +11723,18 @@
         <v>85</v>
       </c>
       <c r="D461">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E461" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F461" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B462" t="s">
         <v>359</v>
@@ -11442,18 +11743,18 @@
         <v>85</v>
       </c>
       <c r="D462">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E462" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F462" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B463" t="s">
         <v>359</v>
@@ -11462,18 +11763,18 @@
         <v>85</v>
       </c>
       <c r="D463">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E463" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F463" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B464" t="s">
         <v>359</v>
@@ -11482,18 +11783,18 @@
         <v>85</v>
       </c>
       <c r="D464">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E464" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F464" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B465" t="s">
         <v>359</v>
@@ -11502,18 +11803,18 @@
         <v>85</v>
       </c>
       <c r="D465">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E465" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F465" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B466" t="s">
         <v>359</v>
@@ -11522,18 +11823,18 @@
         <v>85</v>
       </c>
       <c r="D466">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E466" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F466" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B467" t="s">
         <v>359</v>
@@ -11542,18 +11843,18 @@
         <v>85</v>
       </c>
       <c r="D467">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E467" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F467" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B468" t="s">
         <v>359</v>
@@ -11562,18 +11863,18 @@
         <v>85</v>
       </c>
       <c r="D468">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E468" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F468" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B469" t="s">
         <v>359</v>
@@ -11582,18 +11883,18 @@
         <v>85</v>
       </c>
       <c r="D469">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E469" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F469" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B470" t="s">
         <v>359</v>
@@ -11602,18 +11903,18 @@
         <v>85</v>
       </c>
       <c r="D470">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E470" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F470" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B471" t="s">
         <v>359</v>
@@ -11622,18 +11923,18 @@
         <v>85</v>
       </c>
       <c r="D471">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E471" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F471" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B472" t="s">
         <v>359</v>
@@ -11642,18 +11943,18 @@
         <v>85</v>
       </c>
       <c r="D472">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E472" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F472" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B473" t="s">
         <v>359</v>
@@ -11662,18 +11963,18 @@
         <v>85</v>
       </c>
       <c r="D473">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E473" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F473" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B474" t="s">
         <v>359</v>
@@ -11682,18 +11983,18 @@
         <v>85</v>
       </c>
       <c r="D474">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E474" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F474" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B475" t="s">
         <v>359</v>
@@ -11702,98 +12003,98 @@
         <v>85</v>
       </c>
       <c r="D475">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E475" t="s">
-        <v>545</v>
+        <v>103</v>
       </c>
       <c r="F475" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B476" t="s">
         <v>359</v>
       </c>
       <c r="C476" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D476">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="E476" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="F476" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B477" t="s">
         <v>359</v>
       </c>
       <c r="C477" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="E477" t="s">
-        <v>548</v>
+        <v>137</v>
       </c>
       <c r="F477" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B478" t="s">
         <v>359</v>
       </c>
       <c r="C478" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D478">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="E478" t="s">
-        <v>550</v>
+        <v>154</v>
       </c>
       <c r="F478" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B479" t="s">
         <v>359</v>
       </c>
       <c r="C479" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D479">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="E479" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F479" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B480" t="s">
         <v>359</v>
@@ -11802,18 +12103,18 @@
         <v>176</v>
       </c>
       <c r="D480">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E480" t="s">
-        <v>554</v>
+        <v>177</v>
       </c>
       <c r="F480" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B481" t="s">
         <v>359</v>
@@ -11822,18 +12123,18 @@
         <v>176</v>
       </c>
       <c r="D481">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E481" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F481" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B482" t="s">
         <v>359</v>
@@ -11842,18 +12143,18 @@
         <v>176</v>
       </c>
       <c r="D482">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E482" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F482" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B483" t="s">
         <v>359</v>
@@ -11862,20 +12163,101 @@
         <v>176</v>
       </c>
       <c r="D483">
+        <v>4</v>
+      </c>
+      <c r="E483" t="s">
+        <v>552</v>
+      </c>
+      <c r="F483" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>814</v>
+      </c>
+      <c r="B484" t="s">
+        <v>359</v>
+      </c>
+      <c r="C484" t="s">
+        <v>176</v>
+      </c>
+      <c r="D484">
+        <v>5</v>
+      </c>
+      <c r="E484" t="s">
+        <v>554</v>
+      </c>
+      <c r="F484" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>815</v>
+      </c>
+      <c r="B485" t="s">
+        <v>359</v>
+      </c>
+      <c r="C485" t="s">
+        <v>176</v>
+      </c>
+      <c r="D485">
+        <v>6</v>
+      </c>
+      <c r="E485" t="s">
+        <v>556</v>
+      </c>
+      <c r="F485" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>816</v>
+      </c>
+      <c r="B486" t="s">
+        <v>359</v>
+      </c>
+      <c r="C486" t="s">
+        <v>176</v>
+      </c>
+      <c r="D486">
+        <v>7</v>
+      </c>
+      <c r="E486" t="s">
+        <v>558</v>
+      </c>
+      <c r="F486" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>817</v>
+      </c>
+      <c r="B487" t="s">
+        <v>359</v>
+      </c>
+      <c r="C487" t="s">
+        <v>176</v>
+      </c>
+      <c r="D487">
         <v>8</v>
       </c>
-      <c r="E483" t="s">
+      <c r="E487" t="s">
         <v>560</v>
       </c>
-      <c r="F483" t="s">
+      <c r="F487" t="s">
         <v>561</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11885,8 +12267,8 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21519,7 +21901,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/scripts/Provincial_Tools/tbl_sql_classify.xlsx
+++ b/scripts/Provincial_Tools/tbl_sql_classify.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511C28C-C833-43CF-91A4-6364C1E39BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3996486-FC43-4D1A-86A0-767E4F9DE686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tbl_sql_classify" sheetId="2" r:id="rId1"/>
-    <sheet name="tbl_sql_classify_originalLW" sheetId="1" r:id="rId2"/>
+    <sheet name="Instruction" sheetId="3" r:id="rId1"/>
+    <sheet name="tbl_sql_classify" sheetId="2" r:id="rId2"/>
+    <sheet name="tbl_sql_classify_originalLW" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="tbl_sql_classify" localSheetId="0">tbl_sql_classify!$A$1:$F$482</definedName>
+    <definedName name="tbl_sql_classify" localSheetId="1">tbl_sql_classify!$A$1:$F$482</definedName>
     <definedName name="tbl_sql_classify">tbl_sql_classify_originalLW!$A$1:$F$481</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="631">
   <si>
     <t>RECNO</t>
   </si>
@@ -1955,6 +1956,9 @@
   </si>
   <si>
     <t>POLYTYPE='FOR'</t>
+  </si>
+  <si>
+    <t>Careful when using 'NA'. some scripts automatically change this to 'nan'</t>
   </si>
 </sst>
 </file>
@@ -2017,6 +2021,108 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0849585B-161F-511B-1D0E-C8B848B8A501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="304800"/>
+          <a:ext cx="5876925" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>This workbook</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> is related to the tool PIAM02 Populate Econum SFU PFT LGFU.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Any changes made on this xlsx doesn't impact</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t> the tool unless you export this as csv file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+            <a:t>It's highly recommended not to edit this file unless you are certain something is off.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Kim, Daniel (MNR)" id="{264968DA-A092-4D89-A15E-5FC7711A2087}" userId="S::Daniel.Kim2@ontario.ca::6a941af3-110c-4c3c-b425-309817122f3e" providerId="AD"/>
@@ -2025,13 +2131,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78662066-8961-40A1-8222-90158F51F698}" name="Table2" displayName="Table2" ref="A1:I482" totalsRowShown="0">
-  <autoFilter ref="A1:I482" xr:uid="{78662066-8961-40A1-8222-90158F51F698}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="NEBOR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I482" xr:uid="{78662066-8961-40A1-8222-90158F51F698}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A0EAC60B-668E-44A3-9B0D-478FBC6B6047}" name="RECNO"/>
     <tableColumn id="2" xr3:uid="{FF83C207-30F8-4195-90E0-902ED8E62390}" name="REGION"/>
@@ -2365,21 +2465,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75554A27-DDC8-4041-BCB3-C891473CBC18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
   <dimension ref="A1:I482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="124.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="75.28515625" customWidth="1"/>
@@ -2414,7 +2527,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2437,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2460,7 +2573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2483,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2506,7 +2619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2526,7 +2639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2546,7 +2659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2566,7 +2679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2586,7 +2699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2606,7 +2719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2626,7 +2739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2646,7 +2759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2666,7 +2779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2686,7 +2799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2706,7 +2819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2726,7 +2839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2746,7 +2859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2766,7 +2879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2786,7 +2899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2806,7 +2919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2826,7 +2939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2846,7 +2959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2866,7 +2979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2886,7 +2999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2906,7 +3019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2926,7 +3039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2946,7 +3059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2966,7 +3079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2986,7 +3099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3006,7 +3119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3026,7 +3139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3046,7 +3159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3066,7 +3179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3086,7 +3199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3106,7 +3219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3126,7 +3239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3146,7 +3259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3166,7 +3279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3186,7 +3299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3206,7 +3319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3226,7 +3339,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3246,7 +3359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3266,7 +3379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3286,7 +3399,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3306,7 +3419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3326,7 +3439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3346,7 +3459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3366,7 +3479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3386,7 +3499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3406,7 +3519,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3426,7 +3539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3446,7 +3559,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3466,7 +3579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3486,7 +3599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3506,7 +3619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3526,7 +3639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3546,7 +3659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3566,7 +3679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3586,7 +3699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3606,7 +3719,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3626,7 +3739,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3646,7 +3759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3666,7 +3779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3686,7 +3799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3706,7 +3819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3726,7 +3839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3746,7 +3859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3766,7 +3879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3786,7 +3899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3806,7 +3919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3826,7 +3939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3846,7 +3959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3866,7 +3979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3886,7 +3999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3906,7 +4019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3926,7 +4039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3946,7 +4059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3966,7 +4079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3986,7 +4099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4006,7 +4119,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4026,7 +4139,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4046,7 +4159,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4066,7 +4179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4086,7 +4199,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4106,7 +4219,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4126,7 +4239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4146,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4166,7 +4279,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4186,7 +4299,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4206,7 +4319,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4226,7 +4339,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4246,7 +4359,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4266,7 +4379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4286,7 +4399,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4306,7 +4419,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4326,7 +4439,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4346,7 +4459,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4366,7 +4479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4386,7 +4499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4406,7 +4519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4426,7 +4539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4446,7 +4559,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4466,7 +4579,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4486,7 +4599,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4506,7 +4619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4526,7 +4639,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4546,7 +4659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4566,7 +4679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4586,7 +4699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4606,7 +4719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4626,7 +4739,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4646,7 +4759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4666,7 +4779,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4686,7 +4799,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4706,7 +4819,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4726,7 +4839,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4746,7 +4859,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4766,7 +4879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4786,7 +4899,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4806,7 +4919,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4826,7 +4939,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4846,7 +4959,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4866,7 +4979,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4886,7 +4999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4906,7 +5019,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4926,7 +5039,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4946,7 +5059,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4966,7 +5079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4986,7 +5099,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5006,7 +5119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5026,7 +5139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5046,7 +5159,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5066,7 +5179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5086,7 +5199,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5106,7 +5219,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5126,7 +5239,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5146,7 +5259,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5166,7 +5279,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5186,7 +5299,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5206,7 +5319,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5226,7 +5339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5246,7 +5359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5377,6 +5490,9 @@
       <c r="F148" t="s">
         <v>17</v>
       </c>
+      <c r="I148" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -8218,7 +8334,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>600</v>
       </c>
@@ -8238,7 +8354,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>601</v>
       </c>
@@ -8258,7 +8374,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>602</v>
       </c>
@@ -8278,7 +8394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>603</v>
       </c>
@@ -8298,7 +8414,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>604</v>
       </c>
@@ -8318,7 +8434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>610</v>
       </c>
@@ -8338,7 +8454,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>611</v>
       </c>
@@ -8358,7 +8474,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>612</v>
       </c>
@@ -8378,7 +8494,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>613</v>
       </c>
@@ -8398,7 +8514,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>614</v>
       </c>
@@ -8418,7 +8534,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>615</v>
       </c>
@@ -8438,7 +8554,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>616</v>
       </c>
@@ -8458,7 +8574,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>617</v>
       </c>
@@ -8478,7 +8594,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>618</v>
       </c>
@@ -8498,7 +8614,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>619</v>
       </c>
@@ -8518,7 +8634,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>620</v>
       </c>
@@ -8538,7 +8654,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>621</v>
       </c>
@@ -8558,7 +8674,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>622</v>
       </c>
@@ -8578,7 +8694,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>623</v>
       </c>
@@ -8598,7 +8714,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>624</v>
       </c>
@@ -8618,7 +8734,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>625</v>
       </c>
@@ -8638,7 +8754,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>626</v>
       </c>
@@ -8658,7 +8774,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>627</v>
       </c>
@@ -8678,7 +8794,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>628</v>
       </c>
@@ -8698,7 +8814,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>629</v>
       </c>
@@ -8718,7 +8834,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>630</v>
       </c>
@@ -8738,7 +8854,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>631</v>
       </c>
@@ -8758,7 +8874,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>632</v>
       </c>
@@ -8778,7 +8894,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>633</v>
       </c>
@@ -8798,7 +8914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>634</v>
       </c>
@@ -8818,7 +8934,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>635</v>
       </c>
@@ -8838,7 +8954,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>636</v>
       </c>
@@ -8858,7 +8974,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>640</v>
       </c>
@@ -8878,7 +8994,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>641</v>
       </c>
@@ -8898,7 +9014,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>642</v>
       </c>
@@ -8918,7 +9034,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>643</v>
       </c>
@@ -8938,7 +9054,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>644</v>
       </c>
@@ -8958,7 +9074,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>645</v>
       </c>
@@ -8978,7 +9094,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>646</v>
       </c>
@@ -8998,7 +9114,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>647</v>
       </c>
@@ -9018,7 +9134,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>650</v>
       </c>
@@ -9038,7 +9154,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>651</v>
       </c>
@@ -9058,7 +9174,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>652</v>
       </c>
@@ -9078,7 +9194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>653</v>
       </c>
@@ -9098,7 +9214,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>654</v>
       </c>
@@ -9118,7 +9234,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>655</v>
       </c>
@@ -9138,7 +9254,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>656</v>
       </c>
@@ -9158,7 +9274,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>657</v>
       </c>
@@ -9178,7 +9294,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>658</v>
       </c>
@@ -9198,7 +9314,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>659</v>
       </c>
@@ -9218,7 +9334,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>660</v>
       </c>
@@ -9238,7 +9354,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>661</v>
       </c>
@@ -9258,7 +9374,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>662</v>
       </c>
@@ -9278,7 +9394,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>663</v>
       </c>
@@ -9298,7 +9414,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>664</v>
       </c>
@@ -9318,7 +9434,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>665</v>
       </c>
@@ -9338,7 +9454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>666</v>
       </c>
@@ -9358,7 +9474,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>667</v>
       </c>
@@ -9378,7 +9494,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>668</v>
       </c>
@@ -9398,7 +9514,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>669</v>
       </c>
@@ -9418,7 +9534,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>670</v>
       </c>
@@ -9438,7 +9554,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>671</v>
       </c>
@@ -9458,7 +9574,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>672</v>
       </c>
@@ -9478,7 +9594,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>673</v>
       </c>
@@ -9498,7 +9614,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>674</v>
       </c>
@@ -9518,7 +9634,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>675</v>
       </c>
@@ -9538,7 +9654,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>676</v>
       </c>
@@ -9558,7 +9674,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>680</v>
       </c>
@@ -9578,7 +9694,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>681</v>
       </c>
@@ -9598,7 +9714,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>682</v>
       </c>
@@ -9618,7 +9734,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>683</v>
       </c>
@@ -9638,7 +9754,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>684</v>
       </c>
@@ -9658,7 +9774,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>685</v>
       </c>
@@ -9678,7 +9794,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>686</v>
       </c>
@@ -9698,7 +9814,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>687</v>
       </c>
@@ -9718,7 +9834,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>688</v>
       </c>
@@ -9738,7 +9854,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>689</v>
       </c>
@@ -9758,7 +9874,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>690</v>
       </c>
@@ -9778,7 +9894,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>691</v>
       </c>
@@ -9798,7 +9914,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>692</v>
       </c>
@@ -9818,7 +9934,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>693</v>
       </c>
@@ -9838,7 +9954,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>694</v>
       </c>
@@ -9858,7 +9974,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>695</v>
       </c>
@@ -9878,7 +9994,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>696</v>
       </c>
@@ -9898,7 +10014,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>697</v>
       </c>
@@ -9918,7 +10034,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>698</v>
       </c>
@@ -9938,7 +10054,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>699</v>
       </c>
@@ -9958,7 +10074,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>700</v>
       </c>
@@ -9978,7 +10094,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>701</v>
       </c>
@@ -9998,7 +10114,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>702</v>
       </c>
@@ -10018,7 +10134,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>703</v>
       </c>
@@ -10038,7 +10154,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>704</v>
       </c>
@@ -10058,7 +10174,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>705</v>
       </c>
@@ -10078,7 +10194,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>706</v>
       </c>
@@ -10098,7 +10214,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>707</v>
       </c>
@@ -10118,7 +10234,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>708</v>
       </c>
@@ -10138,7 +10254,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>709</v>
       </c>
@@ -10158,7 +10274,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>710</v>
       </c>
@@ -10178,7 +10294,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>711</v>
       </c>
@@ -10198,7 +10314,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>712</v>
       </c>
@@ -10218,7 +10334,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>713</v>
       </c>
@@ -10238,7 +10354,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>714</v>
       </c>
@@ -10258,7 +10374,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>715</v>
       </c>
@@ -10278,7 +10394,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>716</v>
       </c>
@@ -10298,7 +10414,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>717</v>
       </c>
@@ -10318,7 +10434,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>718</v>
       </c>
@@ -10338,7 +10454,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>719</v>
       </c>
@@ -10358,7 +10474,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>720</v>
       </c>
@@ -10378,7 +10494,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>721</v>
       </c>
@@ -10398,7 +10514,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>722</v>
       </c>
@@ -10418,7 +10534,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>723</v>
       </c>
@@ -10438,7 +10554,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>724</v>
       </c>
@@ -10458,7 +10574,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>725</v>
       </c>
@@ -10478,7 +10594,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>726</v>
       </c>
@@ -10498,7 +10614,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>727</v>
       </c>
@@ -10518,7 +10634,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>728</v>
       </c>
@@ -10538,7 +10654,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>729</v>
       </c>
@@ -10558,7 +10674,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>730</v>
       </c>
@@ -10578,7 +10694,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>731</v>
       </c>
@@ -10598,7 +10714,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>732</v>
       </c>
@@ -10618,7 +10734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>733</v>
       </c>
@@ -10638,7 +10754,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>734</v>
       </c>
@@ -10658,7 +10774,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>735</v>
       </c>
@@ -10678,7 +10794,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>736</v>
       </c>
@@ -10698,7 +10814,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>737</v>
       </c>
@@ -10718,7 +10834,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>738</v>
       </c>
@@ -10738,7 +10854,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>739</v>
       </c>
@@ -10758,7 +10874,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>740</v>
       </c>
@@ -10778,7 +10894,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>741</v>
       </c>
@@ -10798,7 +10914,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>742</v>
       </c>
@@ -10818,7 +10934,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>743</v>
       </c>
@@ -10838,7 +10954,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>744</v>
       </c>
@@ -10858,7 +10974,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>745</v>
       </c>
@@ -10878,7 +10994,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>746</v>
       </c>
@@ -10898,7 +11014,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>747</v>
       </c>
@@ -10918,7 +11034,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>748</v>
       </c>
@@ -10938,7 +11054,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>749</v>
       </c>
@@ -10958,7 +11074,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>750</v>
       </c>
@@ -10978,7 +11094,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>751</v>
       </c>
@@ -10998,7 +11114,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>752</v>
       </c>
@@ -11018,7 +11134,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>753</v>
       </c>
@@ -11038,7 +11154,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>754</v>
       </c>
@@ -11058,7 +11174,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>755</v>
       </c>
@@ -11078,7 +11194,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>756</v>
       </c>
@@ -11098,7 +11214,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>757</v>
       </c>
@@ -11118,7 +11234,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>758</v>
       </c>
@@ -11138,7 +11254,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>759</v>
       </c>
@@ -11158,7 +11274,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>760</v>
       </c>
@@ -11178,7 +11294,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>761</v>
       </c>
@@ -11198,7 +11314,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>762</v>
       </c>
@@ -11218,7 +11334,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>763</v>
       </c>
@@ -11238,7 +11354,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>764</v>
       </c>
@@ -11258,7 +11374,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>765</v>
       </c>
@@ -11278,7 +11394,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>766</v>
       </c>
@@ -11298,7 +11414,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>767</v>
       </c>
@@ -11318,7 +11434,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>768</v>
       </c>
@@ -11338,7 +11454,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>769</v>
       </c>
@@ -11358,7 +11474,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>770</v>
       </c>
@@ -11378,7 +11494,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>771</v>
       </c>
@@ -11398,7 +11514,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>772</v>
       </c>
@@ -11418,7 +11534,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>773</v>
       </c>
@@ -11438,7 +11554,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>774</v>
       </c>
@@ -11458,7 +11574,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>775</v>
       </c>
@@ -11478,7 +11594,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>776</v>
       </c>
@@ -11498,7 +11614,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>777</v>
       </c>
@@ -11518,7 +11634,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>778</v>
       </c>
@@ -11538,7 +11654,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>779</v>
       </c>
@@ -11558,7 +11674,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>780</v>
       </c>
@@ -11578,7 +11694,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>781</v>
       </c>
@@ -11598,7 +11714,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>782</v>
       </c>
@@ -11618,7 +11734,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>783</v>
       </c>
@@ -11638,7 +11754,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>784</v>
       </c>
@@ -11658,7 +11774,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>785</v>
       </c>
@@ -11678,7 +11794,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>786</v>
       </c>
@@ -11698,7 +11814,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>787</v>
       </c>
@@ -11718,7 +11834,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>788</v>
       </c>
@@ -11738,7 +11854,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>789</v>
       </c>
@@ -11758,7 +11874,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>790</v>
       </c>
@@ -11778,7 +11894,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>791</v>
       </c>
@@ -11798,7 +11914,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>792</v>
       </c>
@@ -11818,7 +11934,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>793</v>
       </c>
@@ -11838,7 +11954,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>794</v>
       </c>
@@ -11858,7 +11974,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>795</v>
       </c>
@@ -11878,7 +11994,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>796</v>
       </c>
@@ -11898,7 +12014,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>797</v>
       </c>
@@ -11918,7 +12034,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>798</v>
       </c>
@@ -11938,7 +12054,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>799</v>
       </c>
@@ -11958,7 +12074,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>800</v>
       </c>
@@ -11978,7 +12094,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>801</v>
       </c>
@@ -11998,7 +12114,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>802</v>
       </c>
@@ -12018,7 +12134,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>803</v>
       </c>
@@ -12038,7 +12154,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>804</v>
       </c>
@@ -12058,7 +12174,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>805</v>
       </c>
@@ -12078,7 +12194,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>810</v>
       </c>
@@ -12098,7 +12214,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>811</v>
       </c>
@@ -12118,7 +12234,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>812</v>
       </c>
@@ -12138,7 +12254,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>813</v>
       </c>
@@ -12158,7 +12274,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>814</v>
       </c>
@@ -12178,7 +12294,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>815</v>
       </c>
@@ -12198,7 +12314,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>816</v>
       </c>
@@ -12218,7 +12334,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>817</v>
       </c>
@@ -12248,7 +12364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>

--- a/scripts/Provincial_Tools/tbl_sql_classify.xlsx
+++ b/scripts/Provincial_Tools/tbl_sql_classify.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3996486-FC43-4D1A-86A0-767E4F9DE686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE9A450-392E-44BD-A8D2-3745384C39D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="654">
   <si>
     <t>RECNO</t>
   </si>
@@ -1904,9 +1904,6 @@
     <t>PO+PT+PL+BW+MH+YB+MR+AB+EX+PB&gt;=70 AND PO+PT+PL+PB&gt;=50</t>
   </si>
   <si>
-    <t>PO+BW+YB+MR+UH+MH+LH+OH&gt;=70</t>
-  </si>
-  <si>
     <t>(BF&lt;=20 AND SW&lt;=20 AND CE&lt;=20 AND PO+PT+PL+BW+MH+YB+MR+AB+EX+PB&gt;=50 AND PJ+PR&lt;=50 AND PJ+PR&gt;=20 AND ECONUM IN (16,19,28,40,43,55,59,70,76))</t>
   </si>
   <si>
@@ -1959,6 +1956,78 @@
   </si>
   <si>
     <t>Careful when using 'NA'. some scripts automatically change this to 'nan'</t>
+  </si>
+  <si>
+    <t>originally (Po &gt;= 70 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>originally (Po &gt;= 70)</t>
+  </si>
+  <si>
+    <t>originally (Bw &gt;= 60 And Po + Bw &gt;= 70 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>originally (Bw &gt;= 60 And Po + Bw &gt;= 70)</t>
+  </si>
+  <si>
+    <t>(PO+PT+PL &gt;= 70 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>(PO+PT+PL&gt;= 70)</t>
+  </si>
+  <si>
+    <t>confirmed with G. Beemer's SQL</t>
+  </si>
+  <si>
+    <t>originally (Ce + La &gt;= 50 Or (LeadSpc = 'Ce' or LeadSpc = 'La')) And EcoGrp = 'ConLow'</t>
+  </si>
+  <si>
+    <t>originally (EcoGrp = 'ConLow') Or (EcoGrp = 'HwdLow' And AllCon &gt; AllHwd)</t>
+  </si>
+  <si>
+    <t>originally (Sb &gt;= 70 And Po + Bw &lt;= 20)</t>
+  </si>
+  <si>
+    <t>originally (Pj &gt;= 70 And Po + Bw &lt;= 20 and EcoGrp='ShalES') Or (Pj &gt;= 50 And Po + Bw &lt;= 20 And AGE &gt;= 120 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>originally (Pj &gt;= 70 And Po + Bw &lt;= 20) Or (Pj &gt;= 50 And Po + Bw &lt;= 20 And AGE &gt;= 120) Or (Pj &gt;= 70 And (EcoNum = 34 or EcoNum = 35))</t>
+  </si>
+  <si>
+    <t>(Ce + La &gt;= 50 Or LEADSPC in ('CE','LA','CW')) And EcoGrp = 'ConLow'</t>
+  </si>
+  <si>
+    <t>revised with G. Beemer's SQL</t>
+  </si>
+  <si>
+    <t>(Sb &gt;= 70 And PO+PT+PL+ Bw &lt;= 20 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>(Sb &gt;= 70 And PO+PT+PL+ Bw &lt;= 20)</t>
+  </si>
+  <si>
+    <t>(Pj &gt;= 70 And PO+PT+PL+ Bw &lt;= 20 and EcoGrp='ShalES') Or (Pj &gt;= 50 And PO+PT+PL+ Bw &lt;= 20 And AGE &gt;= 120 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>(Bw &gt;= 60 And PO+PT+PL + Bw &gt;= 70 And EcoGrp = 'ShalES')</t>
+  </si>
+  <si>
+    <t>(Bw &gt;= 60 And PO+PT+PL + Bw &gt;= 70)</t>
+  </si>
+  <si>
+    <t>AllCon &gt;= 70 And Bf &lt;= 10 And PO+PT+PL + Bw &lt;= 20 And Sb + Sw &gt; Pj And Sb + Sw + Pj &gt;= 40</t>
+  </si>
+  <si>
+    <t>AllCon &gt;= 70 And Bf &lt;= 10 And PO+PT+PL + Bw &lt;= 20 And Sb + Sw &lt;= Pj And Sb + Sw + Pj &gt;= 40</t>
+  </si>
+  <si>
+    <t>(Pj &gt;= 70 And PO+PT+PL + Bw &lt;= 20) Or (Pj &gt;= 50 And PO+PT+PL + Bw &lt;= 20 And AGE &gt;= 120) Or (Pj &gt;= 70 And EcoNum in (34,35))</t>
+  </si>
+  <si>
+    <t>Larry used to group PO, PT, PL to PO. Now that they are separate, I must edit this script. Verified with G Beemer's SQL.</t>
+  </si>
+  <si>
+    <t>PO+PT+PL+BW+MH+YB+MR+AB+EX+PB&gt;=70</t>
   </si>
 </sst>
 </file>
@@ -2481,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
   <dimension ref="A1:I482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2562,7 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="124.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="75.28515625" customWidth="1"/>
   </cols>
@@ -2544,7 +2613,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
@@ -2567,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -2590,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -2613,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
@@ -2658,6 +2727,9 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
+      <c r="I7" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2678,6 +2750,9 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
+      <c r="I8" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2698,6 +2773,9 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
+      <c r="I9" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2718,6 +2796,9 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
+      <c r="I10" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2736,7 +2817,13 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>642</v>
+      </c>
+      <c r="H11" t="s">
+        <v>637</v>
+      </c>
+      <c r="I11" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,7 +2863,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>644</v>
+      </c>
+      <c r="H13" t="s">
+        <v>638</v>
+      </c>
+      <c r="I13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2796,7 +2889,13 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>645</v>
+      </c>
+      <c r="H14" t="s">
+        <v>639</v>
+      </c>
+      <c r="I14" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2816,7 +2915,13 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>646</v>
+      </c>
+      <c r="H15" t="s">
+        <v>640</v>
+      </c>
+      <c r="I15" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2836,10 +2941,16 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="H16" t="s">
+        <v>641</v>
+      </c>
+      <c r="I16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2856,10 +2967,16 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="H17" t="s">
+        <v>630</v>
+      </c>
+      <c r="I17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2876,10 +2993,16 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="H18" t="s">
+        <v>631</v>
+      </c>
+      <c r="I18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2896,10 +3019,16 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="H19" t="s">
+        <v>632</v>
+      </c>
+      <c r="I19" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2916,10 +3045,16 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="H20" t="s">
+        <v>633</v>
+      </c>
+      <c r="I20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2939,7 +3074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2956,10 +3091,16 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
+        <v>649</v>
+      </c>
+      <c r="H22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2976,10 +3117,16 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2999,7 +3146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3019,7 +3166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3039,7 +3186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3059,7 +3206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3079,7 +3226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3099,7 +3246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3119,7 +3266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3139,7 +3286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5396,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I144" t="s">
         <v>9</v>
@@ -5419,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I145" t="s">
         <v>209</v>
@@ -5442,7 +5589,7 @@
         <v>210</v>
       </c>
       <c r="F146" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I146" t="s">
         <v>211</v>
@@ -5465,7 +5612,7 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -5491,7 +5638,7 @@
         <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5882,7 +6029,7 @@
         <v>234</v>
       </c>
       <c r="F162" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
       <c r="G162" t="s">
         <v>590</v>
@@ -5911,7 +6058,7 @@
         <v>591</v>
       </c>
       <c r="F163" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G163" t="s">
         <v>596</v>
@@ -5940,7 +6087,7 @@
         <v>592</v>
       </c>
       <c r="F164" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G164" t="s">
         <v>597</v>
@@ -5969,7 +6116,7 @@
         <v>593</v>
       </c>
       <c r="F165" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G165" t="s">
         <v>598</v>
@@ -5978,7 +6125,7 @@
         <v>565</v>
       </c>
       <c r="I165" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5998,7 +6145,7 @@
         <v>594</v>
       </c>
       <c r="F166" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G166" t="s">
         <v>599</v>
@@ -6007,7 +6154,7 @@
         <v>565</v>
       </c>
       <c r="I166" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6467,7 +6614,7 @@
         <v>241</v>
       </c>
       <c r="F189" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8167,7 +8314,7 @@
         <v>192</v>
       </c>
       <c r="F274" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H274" t="s">
         <v>565</v>
@@ -8213,7 +8360,7 @@
         <v>196</v>
       </c>
       <c r="F276" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H276" t="s">
         <v>565</v>
@@ -8236,7 +8383,7 @@
         <v>198</v>
       </c>
       <c r="F277" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H277" t="s">
         <v>565</v>
@@ -8259,7 +8406,7 @@
         <v>200</v>
       </c>
       <c r="F278" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H278" t="s">
         <v>565</v>
@@ -8328,7 +8475,7 @@
         <v>206</v>
       </c>
       <c r="F281" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H281" t="s">
         <v>565</v>
@@ -12370,7 +12517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E161" sqref="E161:E165"/>
+      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>

--- a/scripts/Provincial_Tools/tbl_sql_classify.xlsx
+++ b/scripts/Provincial_Tools/tbl_sql_classify.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FAA40-6E30-4F3B-B50D-7EF45584062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667A13F-34CB-4566-932E-08C5D09D0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" tabRatio="552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="3" r:id="rId1"/>
     <sheet name="tbl_sql_classify" sheetId="2" r:id="rId2"/>
-    <sheet name="tbl_sql_classify_originalLW" sheetId="1" r:id="rId3"/>
+    <sheet name="tbl_sql_classify_originalLW" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="tbl_sql_classify_NEROLT" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="715">
   <si>
     <t>RECNO</t>
   </si>
@@ -2449,6 +2449,12 @@
   </si>
   <si>
     <t>SFU in ('LC1','UPCE')</t>
+  </si>
+  <si>
+    <t>EcoNum&gt;=0</t>
+  </si>
+  <si>
+    <t>originally EcoNum&gt;0</t>
   </si>
 </sst>
 </file>
@@ -2830,10 +2836,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78662066-8961-40A1-8222-90158F51F698}" name="Table2" displayName="Table2" ref="A1:I204" totalsRowShown="0">
   <autoFilter ref="A1:I204" xr:uid="{78662066-8961-40A1-8222-90158F51F698}"/>
@@ -3165,7 +3167,7 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3176,24 +3178,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="108.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1171875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="3" max="3" width="9.703125" customWidth="1"/>
+    <col min="4" max="4" width="10.1171875" customWidth="1"/>
+    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="6" max="6" width="108.87890625" customWidth="1"/>
+    <col min="7" max="7" width="11.1171875" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3224,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>600</v>
       </c>
@@ -3242,7 +3244,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>601</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>602</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>603</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>604</v>
       </c>
@@ -3319,10 +3321,13 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="H6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>810</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>811</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>812</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>813</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>814</v>
       </c>
@@ -3422,7 +3427,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>815</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>816</v>
       </c>
@@ -3462,7 +3467,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>817</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>680</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>681</v>
       </c>
@@ -3522,7 +3527,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>682</v>
       </c>
@@ -3542,7 +3547,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>683</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="358.35" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>684</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>805</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>650</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>651</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>652</v>
       </c>
@@ -3662,7 +3667,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>653</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>654</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>655</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>656</v>
       </c>
@@ -3742,7 +3747,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>657</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>658</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>659</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>660</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>661</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>662</v>
       </c>
@@ -3862,7 +3867,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>663</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>664</v>
       </c>
@@ -3902,7 +3907,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>665</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>666</v>
       </c>
@@ -3942,7 +3947,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>667</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>668</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>669</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>670</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>671</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>672</v>
       </c>
@@ -4062,7 +4067,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>673</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>674</v>
       </c>
@@ -4102,7 +4107,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>675</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>676</v>
       </c>
@@ -4142,7 +4147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>640</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>641</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>642</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>643</v>
       </c>
@@ -4222,7 +4227,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>644</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>645</v>
       </c>
@@ -4262,7 +4267,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>646</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>647</v>
       </c>
@@ -4302,7 +4307,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>610</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>611</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>612</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>613</v>
       </c>
@@ -4382,7 +4387,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>614</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>615</v>
       </c>
@@ -4422,7 +4427,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>616</v>
       </c>
@@ -4442,7 +4447,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>617</v>
       </c>
@@ -4462,7 +4467,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>618</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>619</v>
       </c>
@@ -4502,7 +4507,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>620</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>621</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>622</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>623</v>
       </c>
@@ -4582,7 +4587,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>624</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>625</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>626</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>627</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>628</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>629</v>
       </c>
@@ -4705,7 +4710,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>630</v>
       </c>
@@ -4725,7 +4730,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>631</v>
       </c>
@@ -4745,7 +4750,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>632</v>
       </c>
@@ -4768,7 +4773,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>633</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>634</v>
       </c>
@@ -4811,7 +4816,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>635</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>636</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>300</v>
       </c>
@@ -4880,7 +4885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>301</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>302</v>
       </c>
@@ -4926,7 +4931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>303</v>
       </c>
@@ -4949,7 +4954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>304</v>
       </c>
@@ -4966,13 +4971,16 @@
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>713</v>
+      </c>
+      <c r="H87" t="s">
+        <v>714</v>
       </c>
       <c r="I87" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>480</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>481</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>482</v>
       </c>
@@ -5032,7 +5040,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>483</v>
       </c>
@@ -5052,7 +5060,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>484</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>485</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>486</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>487</v>
       </c>
@@ -5132,7 +5140,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>488</v>
       </c>
@@ -5152,7 +5160,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="215" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>442</v>
       </c>
@@ -5175,7 +5183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="215" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>456</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="215" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>400</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="215" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>414</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="215" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>428</v>
       </c>
@@ -5267,7 +5275,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>350</v>
       </c>
@@ -5290,7 +5298,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>351</v>
       </c>
@@ -5313,7 +5321,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>356</v>
       </c>
@@ -5336,7 +5344,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>359</v>
       </c>
@@ -5359,7 +5367,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>360</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>362</v>
       </c>
@@ -5405,7 +5413,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>364</v>
       </c>
@@ -5428,7 +5436,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>365</v>
       </c>
@@ -5451,7 +5459,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>367</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B111" t="s">
         <v>208</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B112" t="s">
         <v>208</v>
       </c>
@@ -5514,7 +5522,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B113" t="s">
         <v>208</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B114" t="s">
         <v>208</v>
       </c>
@@ -5554,7 +5562,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B115" t="s">
         <v>208</v>
       </c>
@@ -5574,7 +5582,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>490</v>
       </c>
@@ -5597,7 +5605,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>491</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>492</v>
       </c>
@@ -5646,7 +5654,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>493</v>
       </c>
@@ -5669,7 +5677,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>494</v>
       </c>
@@ -5692,7 +5700,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>495</v>
       </c>
@@ -5715,7 +5723,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>496</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>497</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>310</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B125" t="s">
         <v>208</v>
       </c>
@@ -5813,7 +5821,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>311</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>312</v>
       </c>
@@ -5871,7 +5879,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B128" t="s">
         <v>208</v>
       </c>
@@ -5897,7 +5905,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>313</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>315</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>316</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>317</v>
       </c>
@@ -6013,7 +6021,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B133" t="s">
         <v>208</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>318</v>
       </c>
@@ -6068,7 +6076,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>319</v>
       </c>
@@ -6097,7 +6105,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>320</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>321</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>322</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>323</v>
       </c>
@@ -6213,7 +6221,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>324</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>325</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>326</v>
       </c>
@@ -6294,7 +6302,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>1</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>2</v>
       </c>
@@ -6340,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>3</v>
       </c>
@@ -6363,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>4</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>5</v>
       </c>
@@ -6403,10 +6411,13 @@
         <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="H147" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>128</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>129</v>
       </c>
@@ -6446,7 +6457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>130</v>
       </c>
@@ -6466,7 +6477,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>131</v>
       </c>
@@ -6486,7 +6497,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>132</v>
       </c>
@@ -6506,7 +6517,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>133</v>
       </c>
@@ -6526,7 +6537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>134</v>
       </c>
@@ -6546,7 +6557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
       <c r="B155" t="s">
         <v>6</v>
       </c>
@@ -6563,7 +6574,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>59</v>
       </c>
@@ -6583,7 +6594,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>75</v>
       </c>
@@ -6603,7 +6614,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>91</v>
       </c>
@@ -6623,7 +6634,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>107</v>
       </c>
@@ -6643,7 +6654,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>29</v>
       </c>
@@ -6663,7 +6674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>30</v>
       </c>
@@ -6683,7 +6694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>31</v>
       </c>
@@ -6703,7 +6714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>32</v>
       </c>
@@ -6723,7 +6734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>33</v>
       </c>
@@ -6743,7 +6754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>34</v>
       </c>
@@ -6763,7 +6774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>35</v>
       </c>
@@ -6783,7 +6794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>36</v>
       </c>
@@ -6803,7 +6814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>37</v>
       </c>
@@ -6823,7 +6834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>38</v>
       </c>
@@ -6843,7 +6854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>39</v>
       </c>
@@ -6863,7 +6874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>40</v>
       </c>
@@ -6883,7 +6894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>41</v>
       </c>
@@ -6903,7 +6914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>42</v>
       </c>
@@ -6923,7 +6934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>135</v>
       </c>
@@ -6943,7 +6954,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>136</v>
       </c>
@@ -6963,7 +6974,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>137</v>
       </c>
@@ -6983,7 +6994,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>138</v>
       </c>
@@ -7003,7 +7014,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>139</v>
       </c>
@@ -7023,7 +7034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>140</v>
       </c>
@@ -7043,7 +7054,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>141</v>
       </c>
@@ -7063,7 +7074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>142</v>
       </c>
@@ -7083,7 +7094,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>6</v>
       </c>
@@ -7106,7 +7117,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>7</v>
       </c>
@@ -7129,7 +7140,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>8</v>
       </c>
@@ -7152,7 +7163,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>9</v>
       </c>
@@ -7175,7 +7186,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>10</v>
       </c>
@@ -7201,7 +7212,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>11</v>
       </c>
@@ -7221,7 +7232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>12</v>
       </c>
@@ -7247,7 +7258,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>13</v>
       </c>
@@ -7273,7 +7284,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>14</v>
       </c>
@@ -7299,7 +7310,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>15</v>
       </c>
@@ -7325,7 +7336,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>16</v>
       </c>
@@ -7351,7 +7362,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>17</v>
       </c>
@@ -7377,7 +7388,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>18</v>
       </c>
@@ -7403,7 +7414,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>19</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>20</v>
       </c>
@@ -7449,7 +7460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>21</v>
       </c>
@@ -7475,7 +7486,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>22</v>
       </c>
@@ -7501,7 +7512,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>23</v>
       </c>
@@ -7521,7 +7532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>24</v>
       </c>
@@ -7541,7 +7552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>25</v>
       </c>
@@ -7561,7 +7572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>26</v>
       </c>
@@ -7581,7 +7592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>27</v>
       </c>
@@ -7601,7 +7612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>28</v>
       </c>
@@ -7639,16 +7650,16 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.29296875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="78.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" customWidth="1"/>
+    <col min="5" max="5" width="13.1171875" customWidth="1"/>
+    <col min="6" max="6" width="78.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7688,7 +7699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7708,7 +7719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7728,7 +7739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7748,7 +7759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7768,7 +7779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7788,7 +7799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7808,7 +7819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7828,7 +7839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7848,7 +7859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7868,7 +7879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7888,7 +7899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7908,7 +7919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7928,7 +7939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7948,7 +7959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7968,7 +7979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7988,7 +7999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8008,7 +8019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8028,7 +8039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8048,7 +8059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8068,7 +8079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8088,7 +8099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8108,7 +8119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8148,7 +8159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8168,7 +8179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8188,7 +8199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8208,7 +8219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8228,7 +8239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8248,7 +8259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8268,7 +8279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8288,7 +8299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8308,7 +8319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8328,7 +8339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8348,7 +8359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8368,7 +8379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8388,7 +8399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8408,7 +8419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8428,7 +8439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8448,7 +8459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8468,7 +8479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8488,7 +8499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8508,7 +8519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8528,7 +8539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8548,7 +8559,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8568,7 +8579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8588,7 +8599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8608,7 +8619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8628,7 +8639,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8648,7 +8659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8668,7 +8679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8688,7 +8699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8708,7 +8719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8748,7 +8759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8768,7 +8779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8788,7 +8799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8808,7 +8819,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8828,7 +8839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8848,7 +8859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8868,7 +8879,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8888,7 +8899,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8908,7 +8919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8928,7 +8939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8948,7 +8959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8968,7 +8979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8988,7 +8999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9008,7 +9019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9028,7 +9039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9048,7 +9059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9068,7 +9079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9088,7 +9099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9108,7 +9119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9128,7 +9139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9148,7 +9159,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9168,7 +9179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9188,7 +9199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9208,7 +9219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9228,7 +9239,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9248,7 +9259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9268,7 +9279,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9288,7 +9299,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9308,7 +9319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9328,7 +9339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9348,7 +9359,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9368,7 +9379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9388,7 +9399,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9408,7 +9419,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9428,7 +9439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9448,7 +9459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9468,7 +9479,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9488,7 +9499,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9508,7 +9519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9528,7 +9539,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9548,7 +9559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9568,7 +9579,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9588,7 +9599,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9608,7 +9619,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9628,7 +9639,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9648,7 +9659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9668,7 +9679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9688,7 +9699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9708,7 +9719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9728,7 +9739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9748,7 +9759,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9788,7 +9799,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9808,7 +9819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9828,7 +9839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9848,7 +9859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9868,7 +9879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9888,7 +9899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9908,7 +9919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9928,7 +9939,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9948,7 +9959,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9968,7 +9979,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9988,7 +9999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10008,7 +10019,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10028,7 +10039,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10048,7 +10059,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10068,7 +10079,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10088,7 +10099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10108,7 +10119,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10128,7 +10139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10148,7 +10159,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10168,7 +10179,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10188,7 +10199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10208,7 +10219,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10228,7 +10239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10248,7 +10259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10268,7 +10279,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10288,7 +10299,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10308,7 +10319,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10328,7 +10339,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10348,7 +10359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10368,7 +10379,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10388,7 +10399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10408,7 +10419,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10428,7 +10439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10448,7 +10459,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10468,7 +10479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10488,7 +10499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10508,7 +10519,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>300</v>
       </c>
@@ -10528,7 +10539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>301</v>
       </c>
@@ -10548,7 +10559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>302</v>
       </c>
@@ -10568,7 +10579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>303</v>
       </c>
@@ -10588,7 +10599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>304</v>
       </c>
@@ -10608,7 +10619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>310</v>
       </c>
@@ -10628,7 +10639,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>311</v>
       </c>
@@ -10648,7 +10659,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>312</v>
       </c>
@@ -10668,7 +10679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>313</v>
       </c>
@@ -10688,7 +10699,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>315</v>
       </c>
@@ -10708,7 +10719,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>316</v>
       </c>
@@ -10728,7 +10739,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>317</v>
       </c>
@@ -10748,7 +10759,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>318</v>
       </c>
@@ -10768,7 +10779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>319</v>
       </c>
@@ -10788,7 +10799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>320</v>
       </c>
@@ -10808,7 +10819,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>321</v>
       </c>
@@ -10828,7 +10839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>322</v>
       </c>
@@ -10848,7 +10859,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>323</v>
       </c>
@@ -10868,7 +10879,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>324</v>
       </c>
@@ -10888,7 +10899,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>325</v>
       </c>
@@ -10908,7 +10919,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>326</v>
       </c>
@@ -10928,7 +10939,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>327</v>
       </c>
@@ -10948,7 +10959,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>350</v>
       </c>
@@ -10968,7 +10979,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>351</v>
       </c>
@@ -10988,7 +10999,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>352</v>
       </c>
@@ -11008,7 +11019,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>353</v>
       </c>
@@ -11028,7 +11039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>354</v>
       </c>
@@ -11048,7 +11059,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>355</v>
       </c>
@@ -11068,7 +11079,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>356</v>
       </c>
@@ -11088,7 +11099,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>357</v>
       </c>
@@ -11108,7 +11119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>358</v>
       </c>
@@ -11128,7 +11139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>359</v>
       </c>
@@ -11148,7 +11159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>360</v>
       </c>
@@ -11168,7 +11179,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>361</v>
       </c>
@@ -11188,7 +11199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>362</v>
       </c>
@@ -11208,7 +11219,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>363</v>
       </c>
@@ -11228,7 +11239,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>364</v>
       </c>
@@ -11248,7 +11259,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>365</v>
       </c>
@@ -11268,7 +11279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>366</v>
       </c>
@@ -11288,7 +11299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>367</v>
       </c>
@@ -11308,7 +11319,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>368</v>
       </c>
@@ -11328,7 +11339,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>369</v>
       </c>
@@ -11348,7 +11359,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>370</v>
       </c>
@@ -11368,7 +11379,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>371</v>
       </c>
@@ -11388,7 +11399,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>372</v>
       </c>
@@ -11408,7 +11419,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>400</v>
       </c>
@@ -11428,7 +11439,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>401</v>
       </c>
@@ -11448,7 +11459,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>402</v>
       </c>
@@ -11468,7 +11479,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>403</v>
       </c>
@@ -11488,7 +11499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>404</v>
       </c>
@@ -11508,7 +11519,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>405</v>
       </c>
@@ -11528,7 +11539,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>406</v>
       </c>
@@ -11548,7 +11559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>407</v>
       </c>
@@ -11568,7 +11579,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>408</v>
       </c>
@@ -11588,7 +11599,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>409</v>
       </c>
@@ -11608,7 +11619,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>410</v>
       </c>
@@ -11628,7 +11639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>411</v>
       </c>
@@ -11648,7 +11659,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>412</v>
       </c>
@@ -11668,7 +11679,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>413</v>
       </c>
@@ -11688,7 +11699,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>414</v>
       </c>
@@ -11708,7 +11719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>415</v>
       </c>
@@ -11728,7 +11739,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>416</v>
       </c>
@@ -11748,7 +11759,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>417</v>
       </c>
@@ -11768,7 +11779,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>418</v>
       </c>
@@ -11788,7 +11799,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>419</v>
       </c>
@@ -11808,7 +11819,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>420</v>
       </c>
@@ -11828,7 +11839,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>421</v>
       </c>
@@ -11848,7 +11859,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>422</v>
       </c>
@@ -11868,7 +11879,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>423</v>
       </c>
@@ -11888,7 +11899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>424</v>
       </c>
@@ -11908,7 +11919,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>425</v>
       </c>
@@ -11928,7 +11939,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>426</v>
       </c>
@@ -11948,7 +11959,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>427</v>
       </c>
@@ -11968,7 +11979,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>428</v>
       </c>
@@ -11988,7 +11999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>429</v>
       </c>
@@ -12008,7 +12019,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>430</v>
       </c>
@@ -12028,7 +12039,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>431</v>
       </c>
@@ -12048,7 +12059,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>432</v>
       </c>
@@ -12068,7 +12079,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>433</v>
       </c>
@@ -12088,7 +12099,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>434</v>
       </c>
@@ -12108,7 +12119,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>435</v>
       </c>
@@ -12128,7 +12139,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>436</v>
       </c>
@@ -12148,7 +12159,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>437</v>
       </c>
@@ -12168,7 +12179,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>438</v>
       </c>
@@ -12188,7 +12199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>439</v>
       </c>
@@ -12208,7 +12219,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>440</v>
       </c>
@@ -12228,7 +12239,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>441</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>442</v>
       </c>
@@ -12268,7 +12279,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>443</v>
       </c>
@@ -12288,7 +12299,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>444</v>
       </c>
@@ -12308,7 +12319,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>445</v>
       </c>
@@ -12328,7 +12339,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>446</v>
       </c>
@@ -12348,7 +12359,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>447</v>
       </c>
@@ -12368,7 +12379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>448</v>
       </c>
@@ -12388,7 +12399,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>449</v>
       </c>
@@ -12408,7 +12419,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>450</v>
       </c>
@@ -12428,7 +12439,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>451</v>
       </c>
@@ -12448,7 +12459,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>452</v>
       </c>
@@ -12468,7 +12479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>453</v>
       </c>
@@ -12488,7 +12499,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>454</v>
       </c>
@@ -12508,7 +12519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>455</v>
       </c>
@@ -12528,7 +12539,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>456</v>
       </c>
@@ -12548,7 +12559,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>457</v>
       </c>
@@ -12568,7 +12579,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>458</v>
       </c>
@@ -12588,7 +12599,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>459</v>
       </c>
@@ -12608,7 +12619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>460</v>
       </c>
@@ -12628,7 +12639,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>461</v>
       </c>
@@ -12648,7 +12659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>462</v>
       </c>
@@ -12668,7 +12679,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>463</v>
       </c>
@@ -12688,7 +12699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>464</v>
       </c>
@@ -12708,7 +12719,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>465</v>
       </c>
@@ -12728,7 +12739,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>466</v>
       </c>
@@ -12748,7 +12759,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>467</v>
       </c>
@@ -12768,7 +12779,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>468</v>
       </c>
@@ -12788,7 +12799,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>469</v>
       </c>
@@ -12808,7 +12819,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>470</v>
       </c>
@@ -12828,7 +12839,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>471</v>
       </c>
@@ -12848,7 +12859,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>472</v>
       </c>
@@ -12868,7 +12879,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>473</v>
       </c>
@@ -12888,7 +12899,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>474</v>
       </c>
@@ -12908,7 +12919,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>480</v>
       </c>
@@ -12928,7 +12939,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>481</v>
       </c>
@@ -12948,7 +12959,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>482</v>
       </c>
@@ -12968,7 +12979,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>483</v>
       </c>
@@ -12988,7 +12999,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>484</v>
       </c>
@@ -13008,7 +13019,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>485</v>
       </c>
@@ -13028,7 +13039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>486</v>
       </c>
@@ -13048,7 +13059,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>487</v>
       </c>
@@ -13068,7 +13079,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>488</v>
       </c>
@@ -13088,7 +13099,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>490</v>
       </c>
@@ -13108,7 +13119,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>491</v>
       </c>
@@ -13128,7 +13139,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>492</v>
       </c>
@@ -13148,7 +13159,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>493</v>
       </c>
@@ -13168,7 +13179,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>494</v>
       </c>
@@ -13188,7 +13199,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>495</v>
       </c>
@@ -13208,7 +13219,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>496</v>
       </c>
@@ -13228,7 +13239,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>497</v>
       </c>
@@ -13248,7 +13259,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>600</v>
       </c>
@@ -13268,7 +13279,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>601</v>
       </c>
@@ -13288,7 +13299,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>602</v>
       </c>
@@ -13308,7 +13319,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>603</v>
       </c>
@@ -13328,7 +13339,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>604</v>
       </c>
@@ -13348,7 +13359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>610</v>
       </c>
@@ -13368,7 +13379,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>611</v>
       </c>
@@ -13388,7 +13399,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>612</v>
       </c>
@@ -13408,7 +13419,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>613</v>
       </c>
@@ -13428,7 +13439,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>614</v>
       </c>
@@ -13448,7 +13459,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>615</v>
       </c>
@@ -13468,7 +13479,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>616</v>
       </c>
@@ -13488,7 +13499,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>617</v>
       </c>
@@ -13508,7 +13519,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>618</v>
       </c>
@@ -13528,7 +13539,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>619</v>
       </c>
@@ -13548,7 +13559,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>620</v>
       </c>
@@ -13568,7 +13579,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>621</v>
       </c>
@@ -13588,7 +13599,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>622</v>
       </c>
@@ -13608,7 +13619,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>623</v>
       </c>
@@ -13628,7 +13639,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>624</v>
       </c>
@@ -13648,7 +13659,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>625</v>
       </c>
@@ -13668,7 +13679,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>626</v>
       </c>
@@ -13688,7 +13699,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>627</v>
       </c>
@@ -13708,7 +13719,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>628</v>
       </c>
@@ -13728,7 +13739,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>629</v>
       </c>
@@ -13748,7 +13759,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>630</v>
       </c>
@@ -13768,7 +13779,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>631</v>
       </c>
@@ -13788,7 +13799,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>632</v>
       </c>
@@ -13808,7 +13819,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>633</v>
       </c>
@@ -13828,7 +13839,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>634</v>
       </c>
@@ -13848,7 +13859,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>635</v>
       </c>
@@ -13868,7 +13879,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>636</v>
       </c>
@@ -13888,7 +13899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>640</v>
       </c>
@@ -13908,7 +13919,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>641</v>
       </c>
@@ -13928,7 +13939,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>642</v>
       </c>
@@ -13948,7 +13959,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>643</v>
       </c>
@@ -13968,7 +13979,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>644</v>
       </c>
@@ -13988,7 +13999,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>645</v>
       </c>
@@ -14008,7 +14019,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>646</v>
       </c>
@@ -14028,7 +14039,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>647</v>
       </c>
@@ -14048,7 +14059,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>650</v>
       </c>
@@ -14068,7 +14079,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>651</v>
       </c>
@@ -14088,7 +14099,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>652</v>
       </c>
@@ -14108,7 +14119,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>653</v>
       </c>
@@ -14128,7 +14139,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>654</v>
       </c>
@@ -14148,7 +14159,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>655</v>
       </c>
@@ -14168,7 +14179,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>656</v>
       </c>
@@ -14188,7 +14199,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>657</v>
       </c>
@@ -14208,7 +14219,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>658</v>
       </c>
@@ -14228,7 +14239,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>659</v>
       </c>
@@ -14248,7 +14259,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>660</v>
       </c>
@@ -14268,7 +14279,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>661</v>
       </c>
@@ -14288,7 +14299,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>662</v>
       </c>
@@ -14308,7 +14319,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>663</v>
       </c>
@@ -14328,7 +14339,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>664</v>
       </c>
@@ -14348,7 +14359,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>665</v>
       </c>
@@ -14368,7 +14379,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>666</v>
       </c>
@@ -14388,7 +14399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>667</v>
       </c>
@@ -14408,7 +14419,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>668</v>
       </c>
@@ -14428,7 +14439,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>669</v>
       </c>
@@ -14448,7 +14459,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>670</v>
       </c>
@@ -14468,7 +14479,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>671</v>
       </c>
@@ -14488,7 +14499,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>672</v>
       </c>
@@ -14508,7 +14519,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>673</v>
       </c>
@@ -14528,7 +14539,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>674</v>
       </c>
@@ -14548,7 +14559,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>675</v>
       </c>
@@ -14568,7 +14579,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>676</v>
       </c>
@@ -14588,7 +14599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>680</v>
       </c>
@@ -14608,7 +14619,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>681</v>
       </c>
@@ -14628,7 +14639,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>682</v>
       </c>
@@ -14648,7 +14659,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>683</v>
       </c>
@@ -14668,7 +14679,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>684</v>
       </c>
@@ -14688,7 +14699,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>685</v>
       </c>
@@ -14708,7 +14719,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>686</v>
       </c>
@@ -14728,7 +14739,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>687</v>
       </c>
@@ -14748,7 +14759,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>688</v>
       </c>
@@ -14768,7 +14779,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>689</v>
       </c>
@@ -14788,7 +14799,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>690</v>
       </c>
@@ -14808,7 +14819,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>691</v>
       </c>
@@ -14828,7 +14839,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>692</v>
       </c>
@@ -14848,7 +14859,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>693</v>
       </c>
@@ -14868,7 +14879,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>694</v>
       </c>
@@ -14888,7 +14899,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>695</v>
       </c>
@@ -14908,7 +14919,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>696</v>
       </c>
@@ -14928,7 +14939,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>697</v>
       </c>
@@ -14948,7 +14959,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>698</v>
       </c>
@@ -14968,7 +14979,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>699</v>
       </c>
@@ -14988,7 +14999,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>700</v>
       </c>
@@ -15008,7 +15019,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>701</v>
       </c>
@@ -15028,7 +15039,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>702</v>
       </c>
@@ -15048,7 +15059,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>703</v>
       </c>
@@ -15068,7 +15079,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>704</v>
       </c>
@@ -15088,7 +15099,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>705</v>
       </c>
@@ -15108,7 +15119,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>706</v>
       </c>
@@ -15128,7 +15139,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>707</v>
       </c>
@@ -15148,7 +15159,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>708</v>
       </c>
@@ -15168,7 +15179,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>709</v>
       </c>
@@ -15188,7 +15199,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>710</v>
       </c>
@@ -15208,7 +15219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>711</v>
       </c>
@@ -15228,7 +15239,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>712</v>
       </c>
@@ -15248,7 +15259,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>713</v>
       </c>
@@ -15268,7 +15279,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>714</v>
       </c>
@@ -15288,7 +15299,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>715</v>
       </c>
@@ -15308,7 +15319,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>716</v>
       </c>
@@ -15328,7 +15339,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>717</v>
       </c>
@@ -15348,7 +15359,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>718</v>
       </c>
@@ -15368,7 +15379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>719</v>
       </c>
@@ -15388,7 +15399,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>720</v>
       </c>
@@ -15408,7 +15419,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>721</v>
       </c>
@@ -15428,7 +15439,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>722</v>
       </c>
@@ -15448,7 +15459,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>723</v>
       </c>
@@ -15468,7 +15479,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>724</v>
       </c>
@@ -15488,7 +15499,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>725</v>
       </c>
@@ -15508,7 +15519,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>726</v>
       </c>
@@ -15528,7 +15539,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>727</v>
       </c>
@@ -15548,7 +15559,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>728</v>
       </c>
@@ -15568,7 +15579,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>729</v>
       </c>
@@ -15588,7 +15599,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>730</v>
       </c>
@@ -15608,7 +15619,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>731</v>
       </c>
@@ -15628,7 +15639,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>732</v>
       </c>
@@ -15648,7 +15659,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>733</v>
       </c>
@@ -15668,7 +15679,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>734</v>
       </c>
@@ -15688,7 +15699,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>735</v>
       </c>
@@ -15708,7 +15719,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>736</v>
       </c>
@@ -15728,7 +15739,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>737</v>
       </c>
@@ -15748,7 +15759,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>738</v>
       </c>
@@ -15768,7 +15779,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>739</v>
       </c>
@@ -15788,7 +15799,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>740</v>
       </c>
@@ -15808,7 +15819,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>741</v>
       </c>
@@ -15828,7 +15839,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>742</v>
       </c>
@@ -15848,7 +15859,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>743</v>
       </c>
@@ -15868,7 +15879,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>744</v>
       </c>
@@ -15888,7 +15899,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>745</v>
       </c>
@@ -15908,7 +15919,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>746</v>
       </c>
@@ -15928,7 +15939,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>747</v>
       </c>
@@ -15948,7 +15959,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>748</v>
       </c>
@@ -15968,7 +15979,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>749</v>
       </c>
@@ -15988,7 +15999,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>750</v>
       </c>
@@ -16008,7 +16019,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>751</v>
       </c>
@@ -16028,7 +16039,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>752</v>
       </c>
@@ -16048,7 +16059,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>753</v>
       </c>
@@ -16068,7 +16079,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>754</v>
       </c>
@@ -16088,7 +16099,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>755</v>
       </c>
@@ -16108,7 +16119,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>756</v>
       </c>
@@ -16128,7 +16139,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>757</v>
       </c>
@@ -16148,7 +16159,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>758</v>
       </c>
@@ -16168,7 +16179,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>759</v>
       </c>
@@ -16188,7 +16199,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>760</v>
       </c>
@@ -16208,7 +16219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>761</v>
       </c>
@@ -16228,7 +16239,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>762</v>
       </c>
@@ -16248,7 +16259,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>763</v>
       </c>
@@ -16268,7 +16279,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>764</v>
       </c>
@@ -16288,7 +16299,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>765</v>
       </c>
@@ -16308,7 +16319,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>766</v>
       </c>
@@ -16328,7 +16339,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>767</v>
       </c>
@@ -16348,7 +16359,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>768</v>
       </c>
@@ -16368,7 +16379,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>769</v>
       </c>
@@ -16388,7 +16399,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>770</v>
       </c>
@@ -16408,7 +16419,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>771</v>
       </c>
@@ -16428,7 +16439,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>772</v>
       </c>
@@ -16448,7 +16459,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>773</v>
       </c>
@@ -16468,7 +16479,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>774</v>
       </c>
@@ -16488,7 +16499,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>775</v>
       </c>
@@ -16508,7 +16519,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>776</v>
       </c>
@@ -16528,7 +16539,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>777</v>
       </c>
@@ -16548,7 +16559,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>778</v>
       </c>
@@ -16568,7 +16579,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>779</v>
       </c>
@@ -16588,7 +16599,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>780</v>
       </c>
@@ -16608,7 +16619,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>781</v>
       </c>
@@ -16628,7 +16639,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>782</v>
       </c>
@@ -16648,7 +16659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>783</v>
       </c>
@@ -16668,7 +16679,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>784</v>
       </c>
@@ -16688,7 +16699,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>785</v>
       </c>
@@ -16708,7 +16719,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>786</v>
       </c>
@@ -16728,7 +16739,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>787</v>
       </c>
@@ -16748,7 +16759,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>788</v>
       </c>
@@ -16768,7 +16779,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>789</v>
       </c>
@@ -16788,7 +16799,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>790</v>
       </c>
@@ -16808,7 +16819,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>791</v>
       </c>
@@ -16828,7 +16839,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>792</v>
       </c>
@@ -16848,7 +16859,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>793</v>
       </c>
@@ -16868,7 +16879,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>794</v>
       </c>
@@ -16888,7 +16899,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>795</v>
       </c>
@@ -16908,7 +16919,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>796</v>
       </c>
@@ -16928,7 +16939,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>797</v>
       </c>
@@ -16948,7 +16959,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>798</v>
       </c>
@@ -16968,7 +16979,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>799</v>
       </c>
@@ -16988,7 +16999,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>800</v>
       </c>
@@ -17008,7 +17019,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>801</v>
       </c>
@@ -17028,7 +17039,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>802</v>
       </c>
@@ -17048,7 +17059,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>803</v>
       </c>
@@ -17068,7 +17079,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>804</v>
       </c>
@@ -17088,7 +17099,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>805</v>
       </c>
@@ -17108,7 +17119,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>810</v>
       </c>
@@ -17128,7 +17139,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>811</v>
       </c>
@@ -17148,7 +17159,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>812</v>
       </c>
@@ -17168,7 +17179,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>813</v>
       </c>
@@ -17188,7 +17199,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>814</v>
       </c>
@@ -17208,7 +17219,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>815</v>
       </c>
@@ -17228,7 +17239,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>816</v>
       </c>
@@ -17248,7 +17259,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>817</v>
       </c>
@@ -17284,12 +17295,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -17315,7 +17326,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -17335,7 +17346,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>208</v>
       </c>
@@ -17355,7 +17366,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>208</v>
       </c>
@@ -17375,7 +17386,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>208</v>
       </c>
@@ -17399,7 +17410,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>208</v>
       </c>
@@ -17419,7 +17430,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>208</v>
       </c>
@@ -17439,7 +17450,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>208</v>
       </c>
@@ -17461,7 +17472,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -17485,7 +17496,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>208</v>
       </c>
@@ -17507,7 +17518,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>208</v>
       </c>
@@ -17527,7 +17538,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>208</v>
       </c>
@@ -17547,7 +17558,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>208</v>
       </c>
@@ -17569,7 +17580,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>208</v>
       </c>
@@ -17589,7 +17600,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>208</v>
       </c>
@@ -17611,7 +17622,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="7" t="s">
         <v>208</v>
       </c>
@@ -17633,7 +17644,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="86" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>208</v>
       </c>
@@ -17657,7 +17668,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
         <v>208</v>
       </c>

--- a/scripts/Provincial_Tools/tbl_sql_classify.xlsx
+++ b/scripts/Provincial_Tools/tbl_sql_classify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667A13F-34CB-4566-932E-08C5D09D0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1EB328-BD85-4007-8195-17A7EAB2DF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" tabRatio="552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="3" r:id="rId1"/>
@@ -3167,7 +3167,7 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3178,24 +3178,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1171875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
-    <col min="3" max="3" width="9.703125" customWidth="1"/>
-    <col min="4" max="4" width="10.1171875" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
-    <col min="6" max="6" width="108.87890625" customWidth="1"/>
-    <col min="7" max="7" width="11.1171875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="108.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="37.41015625" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>600</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>601</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>602</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>603</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>604</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>810</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>811</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>812</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>813</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>814</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>815</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>816</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>817</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="358.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>680</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="358.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>681</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="358.35" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>682</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="358.35" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>683</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="358.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>684</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>805</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>650</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>651</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>652</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>653</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>654</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>655</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>656</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>657</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>658</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>659</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>660</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>661</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>662</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>663</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>664</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>665</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>666</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>667</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>668</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>669</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>670</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>671</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>672</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>673</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>674</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>675</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>676</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>640</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>641</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>642</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>643</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>644</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>645</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>646</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>647</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>610</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>611</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>612</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>613</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>614</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>615</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>616</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>617</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>618</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>619</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>620</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>621</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>622</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>623</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>624</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>625</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>626</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>627</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>628</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>629</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>630</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>631</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>632</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>633</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>634</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>635</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>636</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>300</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>301</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>302</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>303</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>304</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>480</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>481</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>482</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>483</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>484</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>485</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>486</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>487</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>488</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="215" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>442</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="215" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>456</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="215" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>400</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="215" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>414</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="215" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>428</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>350</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>351</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>356</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>359</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>360</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>362</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>364</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>365</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>367</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>208</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>208</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>208</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>208</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>208</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>490</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>491</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>492</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>493</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>494</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>495</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>496</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>497</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>310</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>208</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>311</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>312</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>208</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>313</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>315</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>316</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>317</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>208</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>318</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>319</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>320</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>321</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>322</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>323</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>324</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>325</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>326</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>128</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>129</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>130</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>131</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>132</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>133</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>134</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>6</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>59</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>75</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>91</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>107</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>29</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>30</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>31</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>32</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>33</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>34</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>35</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>36</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>37</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>38</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>39</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>40</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>41</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>42</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>135</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>136</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>137</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>138</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>139</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>140</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>141</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>142</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>7</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>11</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>12</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>13</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>14</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>15</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>16</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>17</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>18</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>19</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>20</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>21</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>22</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>23</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>24</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>25</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>26</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>27</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>28</v>
       </c>
@@ -7650,16 +7650,16 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.29296875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" customWidth="1"/>
-    <col min="5" max="5" width="13.1171875" customWidth="1"/>
-    <col min="6" max="6" width="78.703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>300</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>301</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>302</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>303</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>304</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>310</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>311</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>312</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>313</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>315</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>316</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>317</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>318</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>319</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>320</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>321</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>322</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>323</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>324</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>325</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>326</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>327</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>350</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>351</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>352</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>353</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>354</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>355</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>356</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>357</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>358</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>359</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>360</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>361</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>362</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>363</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>364</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>365</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>366</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>367</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>368</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>369</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>370</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>371</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>372</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>400</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>401</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>402</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>403</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>404</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>405</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>406</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>407</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>408</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>409</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>410</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>411</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>412</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>413</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>414</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>415</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>416</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>417</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>418</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>419</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>420</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>421</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>422</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>423</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>424</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>425</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>426</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>427</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>428</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>429</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>430</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>431</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>432</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>433</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>434</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>435</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>436</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>437</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>438</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>439</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>440</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>441</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>442</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>443</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>444</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>445</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>446</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>447</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>448</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>449</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>450</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>451</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>452</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>453</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>454</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>455</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>456</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>457</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>458</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>459</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>460</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>461</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>462</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>463</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>464</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>465</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>466</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>467</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>468</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>469</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>470</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>471</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>472</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>473</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>474</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>480</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>481</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>482</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>483</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>484</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>485</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>486</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>487</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>488</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>490</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>491</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>492</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>493</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>494</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>495</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>496</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>497</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>600</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>601</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>602</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>603</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>604</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>610</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>611</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>612</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>613</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>614</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>615</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>616</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>617</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>618</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>619</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>620</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>621</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>622</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>623</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>624</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>625</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>626</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>627</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>628</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>629</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>630</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>631</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>632</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>633</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>634</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>635</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>636</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>640</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>641</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>642</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>643</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>644</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>645</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>646</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>647</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>650</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>651</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>652</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>653</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>654</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>655</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>656</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>657</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>658</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>659</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>660</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>661</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>662</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>663</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>664</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>665</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>666</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>667</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>668</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>669</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>670</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>671</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>672</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>673</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>674</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>675</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>676</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>680</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>681</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>682</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>683</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>684</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>685</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>686</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>687</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>688</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>689</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>690</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>691</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>692</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>693</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>694</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>695</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>696</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>697</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>698</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>699</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>700</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>701</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>702</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>703</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>704</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>705</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>706</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>707</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>708</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>709</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>710</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>711</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>712</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>713</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>714</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>715</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>716</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>717</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>718</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>719</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>720</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>721</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>722</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>723</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>724</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>725</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>726</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>727</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>728</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>729</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>730</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>731</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>732</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>733</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>734</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>735</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>736</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>737</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>738</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>739</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>740</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>741</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>742</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>743</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>744</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>745</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>746</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>747</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>748</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>749</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>750</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>751</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>752</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>753</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>754</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>755</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>756</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>757</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>758</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>759</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>760</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>761</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>762</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>763</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>764</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>765</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>766</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>767</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>768</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>769</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>770</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>771</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>772</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>773</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>774</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>775</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>776</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>777</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>778</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>779</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>780</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>781</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>782</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>783</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>784</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>785</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>786</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>787</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>788</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>789</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>790</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>791</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>792</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>793</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>794</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>795</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>796</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>797</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>798</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>799</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>800</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>801</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>802</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>803</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>804</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>805</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>810</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>811</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>812</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>813</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>814</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>815</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>816</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>817</v>
       </c>
@@ -17295,12 +17295,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="80.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -17346,7 +17346,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>208</v>
       </c>
@@ -17366,7 +17366,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>208</v>
       </c>
@@ -17386,7 +17386,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>208</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>208</v>
       </c>
@@ -17430,7 +17430,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>208</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>208</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>208</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>208</v>
       </c>
@@ -17538,7 +17538,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>208</v>
       </c>
@@ -17558,7 +17558,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>208</v>
       </c>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>208</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>208</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>208</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="86" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>208</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>208</v>
       </c>

--- a/scripts/Provincial_Tools/tbl_sql_classify.xlsx
+++ b/scripts/Provincial_Tools/tbl_sql_classify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\git\p3t_ArcGIS_Pro_Tools\scripts\Provincial_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1EB328-BD85-4007-8195-17A7EAB2DF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D80FB2-276F-4299-8B86-1A347256B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="716">
   <si>
     <t>RECNO</t>
   </si>
@@ -2455,6 +2455,9 @@
   </si>
   <si>
     <t>originally EcoNum&gt;0</t>
+  </si>
+  <si>
+    <t>had chat with J. Mucha - HRDOM may need to move to POP?</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2841,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78662066-8961-40A1-8222-90158F51F698}" name="Table2" displayName="Table2" ref="A1:I204" totalsRowShown="0">
-  <autoFilter ref="A1:I204" xr:uid="{78662066-8961-40A1-8222-90158F51F698}"/>
+  <autoFilter ref="A1:I204" xr:uid="{78662066-8961-40A1-8222-90158F51F698}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PFT"/>
+        <filter val="SFU"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I204">
     <sortCondition ref="B2:B204"/>
     <sortCondition ref="C2:C204"/>
@@ -3178,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4AE21-1701-4E7D-951A-9CFF25966ACE}">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q97" sqref="Q97"/>
+    <sheetView tabSelected="1" topLeftCell="B122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3234,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>600</v>
       </c>
@@ -3244,7 +3254,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>601</v>
       </c>
@@ -3264,7 +3274,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>602</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>603</v>
       </c>
@@ -3304,7 +3314,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>604</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>810</v>
       </c>
@@ -3347,7 +3357,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>811</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>812</v>
       </c>
@@ -3387,7 +3397,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>813</v>
       </c>
@@ -3407,7 +3417,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>814</v>
       </c>
@@ -3427,7 +3437,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>815</v>
       </c>
@@ -3447,7 +3457,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>816</v>
       </c>
@@ -3467,7 +3477,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>817</v>
       </c>
@@ -3487,7 +3497,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>680</v>
       </c>
@@ -3507,7 +3517,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>681</v>
       </c>
@@ -3527,7 +3537,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>682</v>
       </c>
@@ -3547,7 +3557,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>683</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>684</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>805</v>
       </c>
@@ -3607,7 +3617,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>650</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>651</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>652</v>
       </c>
@@ -3667,7 +3677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>653</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>654</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>655</v>
       </c>
@@ -3727,7 +3737,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>656</v>
       </c>
@@ -3747,7 +3757,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>657</v>
       </c>
@@ -3767,7 +3777,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>658</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>659</v>
       </c>
@@ -3807,7 +3817,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>660</v>
       </c>
@@ -3827,7 +3837,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>661</v>
       </c>
@@ -3847,7 +3857,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>662</v>
       </c>
@@ -3867,7 +3877,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>663</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>664</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>665</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>666</v>
       </c>
@@ -3947,7 +3957,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>667</v>
       </c>
@@ -3967,7 +3977,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>668</v>
       </c>
@@ -3987,7 +3997,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>669</v>
       </c>
@@ -4007,7 +4017,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>670</v>
       </c>
@@ -4027,7 +4037,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>671</v>
       </c>
@@ -4047,7 +4057,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>672</v>
       </c>
@@ -4067,7 +4077,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>673</v>
       </c>
@@ -4087,7 +4097,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>674</v>
       </c>
@@ -4107,7 +4117,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>675</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>676</v>
       </c>
@@ -4862,7 +4872,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>300</v>
       </c>
@@ -4885,7 +4895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>301</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>302</v>
       </c>
@@ -4931,7 +4941,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>303</v>
       </c>
@@ -4954,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>304</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>480</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>481</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>482</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>483</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>484</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>485</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>486</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>487</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>488</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>442</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>456</v>
       </c>
@@ -5206,7 +5216,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>400</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>414</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>428</v>
       </c>
@@ -5275,7 +5285,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>350</v>
       </c>
@@ -5298,7 +5308,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>351</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>356</v>
       </c>
@@ -5344,7 +5354,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>359</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>360</v>
       </c>
@@ -5390,7 +5400,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>362</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>364</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>365</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>367</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>208</v>
       </c>
@@ -5502,7 +5512,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>208</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>208</v>
       </c>
@@ -5542,7 +5552,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>208</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>208</v>
       </c>
@@ -6302,7 +6312,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -6325,7 +6335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -6348,7 +6358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -6371,7 +6381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -6394,7 +6404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -6417,7 +6427,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>128</v>
       </c>
@@ -6437,7 +6447,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>129</v>
       </c>
@@ -6457,7 +6467,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>130</v>
       </c>
@@ -6477,7 +6487,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>131</v>
       </c>
@@ -6497,7 +6507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>132</v>
       </c>
@@ -6517,7 +6527,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>133</v>
       </c>
@@ -6537,7 +6547,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>134</v>
       </c>
@@ -6557,7 +6567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>6</v>
       </c>
@@ -6574,7 +6584,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>59</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>75</v>
       </c>
@@ -6614,7 +6624,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>91</v>
       </c>
@@ -6634,7 +6644,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>107</v>
       </c>
@@ -6654,7 +6664,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>29</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>30</v>
       </c>
@@ -6694,7 +6704,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>31</v>
       </c>
@@ -6714,7 +6724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>32</v>
       </c>
@@ -6734,7 +6744,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>33</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>34</v>
       </c>
@@ -6774,7 +6784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>35</v>
       </c>
@@ -6794,7 +6804,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>36</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>37</v>
       </c>
@@ -6834,7 +6844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>38</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>39</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>40</v>
       </c>
@@ -6894,7 +6904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>41</v>
       </c>
@@ -6914,7 +6924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>42</v>
       </c>
@@ -7032,6 +7042,9 @@
       </c>
       <c r="F178" t="s">
         <v>201</v>
+      </c>
+      <c r="I178" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
